--- a/federalcoviddollars.xlsx
+++ b/federalcoviddollars.xlsx
@@ -2,24 +2,26 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleaw\OneDrive\Documents\PhD Fall 2021 - Spring 2022\Merriman RA\Fiscal Futures FY2022\Fiscal-Future-Topics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA786453-CF35-452C-8097-C92ED2DC0DB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{945C64CF-FD77-407F-8FF1-A888A3C5B879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{85440E55-7C44-4F4B-A24B-5EBBF184EC98}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="3" xr2:uid="{85440E55-7C44-4F4B-A24B-5EBBF184EC98}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="image" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId2"/>
+    <sheet name="image" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
+    <sheet name="arpa" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="16" r:id="rId4"/>
+    <pivotCache cacheId="1" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -41,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="130">
   <si>
     <t>Federal Other</t>
   </si>
@@ -286,9 +288,6 @@
     <t>Human Services</t>
   </si>
   <si>
-    <t>DOT</t>
-  </si>
-  <si>
     <t>Sum of Other items minus TANF &amp; Transit</t>
   </si>
   <si>
@@ -368,6 +367,72 @@
   </si>
   <si>
     <t>CRRSA</t>
+  </si>
+  <si>
+    <t>Normal Spending 2019</t>
+  </si>
+  <si>
+    <t>Federal - Other</t>
+  </si>
+  <si>
+    <t>Federal Medicaid Reimbursements</t>
+  </si>
+  <si>
+    <t>Federal Transportation</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>2022-2019</t>
+  </si>
+  <si>
+    <t>FedRevCat</t>
+  </si>
+  <si>
+    <t>Federal-Other</t>
+  </si>
+  <si>
+    <t>Local Transfers-Excluded</t>
+  </si>
+  <si>
+    <t>Federal Medicaid</t>
+  </si>
+  <si>
+    <t>Federal K-12</t>
+  </si>
+  <si>
+    <t>Usmoney t mo OState ofe</t>
+  </si>
+  <si>
+    <t>UI Fund</t>
+  </si>
+  <si>
+    <t>Capital</t>
+  </si>
+  <si>
+    <t>FY23</t>
+  </si>
+  <si>
+    <t>Rev Replacement??</t>
+  </si>
+  <si>
+    <t>ProgramsFY22</t>
+  </si>
+  <si>
+    <t>2.7?</t>
+  </si>
+  <si>
+    <t>ProgramsFy23</t>
+  </si>
+  <si>
+    <t>Spent</t>
+  </si>
+  <si>
+    <t>FY Spent</t>
+  </si>
+  <si>
+    <t>Allocated</t>
   </si>
 </sst>
 </file>
@@ -437,7 +502,19 @@
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="7">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
@@ -4399,11 +4476,11 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Alea Wilbur" refreshedDate="44935.559552893516" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="20" xr:uid="{45DBCC74-C39B-4F4F-B740-BB8AED03B2A7}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Alea Wilbur" refreshedDate="44935.599392824071" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="20" xr:uid="{45DBCC74-C39B-4F4F-B740-BB8AED03B2A7}">
   <cacheSource type="worksheet">
     <worksheetSource name="Table1"/>
   </cacheSource>
-  <cacheFields count="9">
+  <cacheFields count="10">
     <cacheField name="Legislation" numFmtId="0">
       <sharedItems count="5">
         <s v="ARPA"/>
@@ -4412,6 +4489,9 @@
         <s v="PPP &amp; HealthCare"/>
         <s v="Response &amp;Relief "/>
       </sharedItems>
+    </cacheField>
+    <cacheField name="Legislation2" numFmtId="0">
+      <sharedItems/>
     </cacheField>
     <cacheField name="Category" numFmtId="0">
       <sharedItems/>
@@ -4461,6 +4541,7 @@
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="20">
   <r>
     <x v="0"/>
+    <s v="ARPA"/>
     <s v="SLFRF"/>
     <s v="State"/>
     <m/>
@@ -4472,8 +4553,9 @@
   </r>
   <r>
     <x v="0"/>
+    <s v="ARPA"/>
     <s v="SLFRF"/>
-    <s v="Local Govs"/>
+    <s v="Local Govs-Excluded"/>
     <m/>
     <s v="Gen. Recovery"/>
     <x v="1"/>
@@ -4483,6 +4565,7 @@
   </r>
   <r>
     <x v="0"/>
+    <s v="ARPA"/>
     <s v="ESSER"/>
     <s v="ISBE"/>
     <m/>
@@ -4494,8 +4577,9 @@
   </r>
   <r>
     <x v="0"/>
-    <s v="DOT"/>
-    <s v="Transit"/>
+    <s v="ARPA"/>
+    <s v="Other"/>
+    <s v="Other"/>
     <m/>
     <s v="Transit"/>
     <x v="2"/>
@@ -4505,6 +4589,7 @@
   </r>
   <r>
     <x v="0"/>
+    <s v="ARPA"/>
     <s v="HHS"/>
     <s v="Human Services"/>
     <m/>
@@ -4516,6 +4601,7 @@
   </r>
   <r>
     <x v="0"/>
+    <s v="ARPA"/>
     <s v="Other"/>
     <s v="State"/>
     <m/>
@@ -4527,6 +4613,7 @@
   </r>
   <r>
     <x v="1"/>
+    <s v="CARES"/>
     <s v="CRF"/>
     <s v="State"/>
     <m/>
@@ -4538,8 +4625,9 @@
   </r>
   <r>
     <x v="1"/>
+    <s v="CARES"/>
     <s v="SLFRF"/>
-    <s v="Local Govs"/>
+    <s v="Local Govs-Excluded"/>
     <m/>
     <s v="Transit"/>
     <x v="1"/>
@@ -4549,8 +4637,9 @@
   </r>
   <r>
     <x v="1"/>
+    <s v="CARES"/>
     <s v="CRF"/>
-    <s v="Local Govs"/>
+    <s v="Local Govs-Excluded"/>
     <m/>
     <s v="Gen. Recovery"/>
     <x v="1"/>
@@ -4560,6 +4649,7 @@
   </r>
   <r>
     <x v="1"/>
+    <s v="CARES"/>
     <s v="ESSER"/>
     <s v="ISBE"/>
     <s v="Education Stabilization Fund"/>
@@ -4571,6 +4661,7 @@
   </r>
   <r>
     <x v="1"/>
+    <s v="CARES"/>
     <s v="Nutrition"/>
     <s v="State"/>
     <s v="SNAP"/>
@@ -4582,6 +4673,7 @@
   </r>
   <r>
     <x v="1"/>
+    <s v="CARES"/>
     <s v="Child &amp; Fam Serv"/>
     <s v="Human Services"/>
     <s v="Child Care &amp; Development Block Grant &amp; Community Services Block Grant"/>
@@ -4593,6 +4685,7 @@
   </r>
   <r>
     <x v="1"/>
+    <s v="CARES"/>
     <s v="Health Provider"/>
     <s v="State"/>
     <m/>
@@ -4604,6 +4697,7 @@
   </r>
   <r>
     <x v="1"/>
+    <s v="CARES"/>
     <s v="CRF"/>
     <s v="Other"/>
     <m/>
@@ -4615,6 +4709,7 @@
   </r>
   <r>
     <x v="1"/>
+    <s v="CARES"/>
     <s v="Other"/>
     <s v="Other"/>
     <s v="Election Security, Airlines"/>
@@ -4626,6 +4721,7 @@
   </r>
   <r>
     <x v="2"/>
+    <s v="Other"/>
     <s v="State"/>
     <s v="State"/>
     <s v="Medicaid Continuous Coverage Requirement"/>
@@ -4637,6 +4733,7 @@
   </r>
   <r>
     <x v="2"/>
+    <s v="Other"/>
     <s v="State"/>
     <s v="State"/>
     <s v="Medicaid Matching Funds Increase"/>
@@ -4648,6 +4745,7 @@
   </r>
   <r>
     <x v="3"/>
+    <s v="Other"/>
     <s v="Health Provider"/>
     <s v="State"/>
     <s v="Provider Relief Fund"/>
@@ -4659,6 +4757,7 @@
   </r>
   <r>
     <x v="4"/>
+    <s v="CRRSA"/>
     <s v="ESSER"/>
     <s v="ISBE"/>
     <s v="Education Stabilization Fund"/>
@@ -4670,6 +4769,7 @@
   </r>
   <r>
     <x v="4"/>
+    <s v="CRRSA"/>
     <s v="Other"/>
     <s v="Other"/>
     <s v="Child Care &amp; Development Block Grant, transportation, private schools"/>
@@ -4683,9 +4783,9 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F8C3A60C-374F-4F34-855E-4A3D74C991CE}" name="PivotTable1" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F8C3A60C-374F-4F34-855E-4A3D74C991CE}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A1:V6" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
-  <pivotFields count="9">
+  <pivotFields count="10">
     <pivotField axis="axisCol" showAll="0" sortType="ascending">
       <items count="6">
         <item x="0"/>
@@ -4696,6 +4796,7 @@
         <item t="default"/>
       </items>
     </pivotField>
+    <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -4732,7 +4833,7 @@
     <pivotField showAll="0"/>
   </pivotFields>
   <rowFields count="1">
-    <field x="6"/>
+    <field x="7"/>
   </rowFields>
   <rowItems count="3">
     <i>
@@ -4747,7 +4848,7 @@
   </rowItems>
   <colFields count="2">
     <field x="0"/>
-    <field x="5"/>
+    <field x="6"/>
   </colFields>
   <colItems count="21">
     <i>
@@ -4820,10 +4921,10 @@
     </i>
   </colItems>
   <dataFields count="1">
-    <dataField name="Sum of Dollars Received" fld="7" baseField="0" baseItem="0" numFmtId="164"/>
+    <dataField name="Sum of Dollars Received" fld="8" baseField="0" baseItem="0" numFmtId="164"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="0">
+    <format dxfId="4">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -4834,7 +4935,7 @@
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
           </reference>
-          <reference field="5" count="1" selected="0">
+          <reference field="6" count="1" selected="0">
             <x v="0"/>
           </reference>
         </references>
@@ -4846,7 +4947,7 @@
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
           </reference>
-          <reference field="5" count="1" selected="0">
+          <reference field="6" count="1" selected="0">
             <x v="1"/>
           </reference>
         </references>
@@ -4858,7 +4959,7 @@
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
           </reference>
-          <reference field="5" count="1" selected="0">
+          <reference field="6" count="1" selected="0">
             <x v="2"/>
           </reference>
         </references>
@@ -4870,7 +4971,7 @@
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
           </reference>
-          <reference field="5" count="1" selected="0">
+          <reference field="6" count="1" selected="0">
             <x v="3"/>
           </reference>
         </references>
@@ -4882,7 +4983,7 @@
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
           </reference>
-          <reference field="5" count="1" selected="0">
+          <reference field="6" count="1" selected="0">
             <x v="4"/>
           </reference>
         </references>
@@ -4894,7 +4995,7 @@
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
           </reference>
-          <reference field="5" count="1" selected="0">
+          <reference field="6" count="1" selected="0">
             <x v="5"/>
           </reference>
         </references>
@@ -4906,7 +5007,7 @@
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
           </reference>
-          <reference field="5" count="1" selected="0">
+          <reference field="6" count="1" selected="0">
             <x v="6"/>
           </reference>
         </references>
@@ -4921,7 +5022,7 @@
           <reference field="0" count="1" selected="0">
             <x v="1"/>
           </reference>
-          <reference field="5" count="1" selected="0">
+          <reference field="6" count="1" selected="0">
             <x v="1"/>
           </reference>
         </references>
@@ -4936,7 +5037,7 @@
           <reference field="0" count="1" selected="0">
             <x v="1"/>
           </reference>
-          <reference field="5" count="1" selected="0">
+          <reference field="6" count="1" selected="0">
             <x v="2"/>
           </reference>
         </references>
@@ -4951,7 +5052,7 @@
           <reference field="0" count="1" selected="0">
             <x v="1"/>
           </reference>
-          <reference field="5" count="1" selected="0">
+          <reference field="6" count="1" selected="0">
             <x v="3"/>
           </reference>
         </references>
@@ -4966,7 +5067,7 @@
           <reference field="0" count="1" selected="0">
             <x v="1"/>
           </reference>
-          <reference field="5" count="1" selected="0">
+          <reference field="6" count="1" selected="0">
             <x v="5"/>
           </reference>
         </references>
@@ -4981,7 +5082,7 @@
           <reference field="0" count="1" selected="0">
             <x v="1"/>
           </reference>
-          <reference field="5" count="1" selected="0">
+          <reference field="6" count="1" selected="0">
             <x v="6"/>
           </reference>
         </references>
@@ -4996,7 +5097,7 @@
           <reference field="0" count="1" selected="0">
             <x v="2"/>
           </reference>
-          <reference field="5" count="1" selected="0">
+          <reference field="6" count="1" selected="0">
             <x v="3"/>
           </reference>
         </references>
@@ -5011,7 +5112,7 @@
           <reference field="0" count="1" selected="0">
             <x v="3"/>
           </reference>
-          <reference field="5" count="1" selected="0">
+          <reference field="6" count="1" selected="0">
             <x v="3"/>
           </reference>
         </references>
@@ -5026,7 +5127,7 @@
           <reference field="0" count="1" selected="0">
             <x v="4"/>
           </reference>
-          <reference field="5" count="1" selected="0">
+          <reference field="6" count="1" selected="0">
             <x v="1"/>
           </reference>
         </references>
@@ -5041,7 +5142,7 @@
           <reference field="0" count="1" selected="0">
             <x v="4"/>
           </reference>
-          <reference field="5" count="1" selected="0">
+          <reference field="6" count="1" selected="0">
             <x v="2"/>
           </reference>
         </references>
@@ -5068,7 +5169,7 @@
           <reference field="0" count="1" selected="0">
             <x v="0"/>
           </reference>
-          <reference field="5" count="1" selected="0">
+          <reference field="6" count="1" selected="0">
             <x v="1"/>
           </reference>
         </references>
@@ -5083,7 +5184,7 @@
           <reference field="0" count="1" selected="0">
             <x v="0"/>
           </reference>
-          <reference field="5" count="1" selected="0">
+          <reference field="6" count="1" selected="0">
             <x v="3"/>
           </reference>
         </references>
@@ -5098,7 +5199,7 @@
           <reference field="0" count="1" selected="0">
             <x v="0"/>
           </reference>
-          <reference field="5" count="1" selected="0">
+          <reference field="6" count="1" selected="0">
             <x v="0"/>
           </reference>
         </references>
@@ -5113,7 +5214,7 @@
           <reference field="0" count="1" selected="0">
             <x v="0"/>
           </reference>
-          <reference field="5" count="1" selected="0">
+          <reference field="6" count="1" selected="0">
             <x v="2"/>
           </reference>
         </references>
@@ -5128,7 +5229,7 @@
           <reference field="0" count="1" selected="0">
             <x v="0"/>
           </reference>
-          <reference field="5" count="1" selected="0">
+          <reference field="6" count="1" selected="0">
             <x v="6"/>
           </reference>
         </references>
@@ -5143,7 +5244,7 @@
           <reference field="0" count="1" selected="0">
             <x v="1"/>
           </reference>
-          <reference field="5" count="1" selected="0">
+          <reference field="6" count="1" selected="0">
             <x v="0"/>
           </reference>
         </references>
@@ -5163,12 +5264,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7307C173-B5A8-415C-816E-E5204417BCF6}" name="Table1" displayName="Table1" ref="A1:J21" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="A1:J21" xr:uid="{7307C173-B5A8-415C-816E-E5204417BCF6}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7307C173-B5A8-415C-816E-E5204417BCF6}" name="Table1" displayName="Table1" ref="A1:L21" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="A1:L21" xr:uid="{7307C173-B5A8-415C-816E-E5204417BCF6}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K16">
     <sortCondition ref="A1:A16"/>
   </sortState>
-  <tableColumns count="10">
+  <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{8163EC4D-009A-40FF-9229-6E891FB726B7}" name="Legislation"/>
     <tableColumn id="10" xr3:uid="{35E530C4-9399-43E6-97C8-813F90AD827D}" name="Legislation2"/>
     <tableColumn id="2" xr3:uid="{6D57C04E-A635-4476-802B-36FCF74D196F}" name="Category"/>
@@ -5176,9 +5277,11 @@
     <tableColumn id="9" xr3:uid="{FA7BFC94-6DAB-48D1-8E20-602FB4C4821C}" name="Fund"/>
     <tableColumn id="4" xr3:uid="{8B66ADA8-3D64-4999-AF9E-0DCECDB0CFDA}" name="Purpose"/>
     <tableColumn id="5" xr3:uid="{D7BE3FF4-025D-48AC-85BC-582B164E67AF}" name="FF_Cat"/>
+    <tableColumn id="12" xr3:uid="{F4DF1D9B-D6F1-4E5B-9116-A9EC7B0CFC4F}" name="FedRevCat"/>
     <tableColumn id="6" xr3:uid="{B76CE084-47E0-4941-8B7B-58AC5FF2037D}" name="FY"/>
-    <tableColumn id="7" xr3:uid="{B2A84F10-914D-4196-9116-2F0B9D5038FE}" name="Dollars Received" dataDxfId="1" dataCellStyle="Comma"/>
+    <tableColumn id="7" xr3:uid="{B2A84F10-914D-4196-9116-2F0B9D5038FE}" name="Dollars Received" dataDxfId="5" dataCellStyle="Comma"/>
     <tableColumn id="8" xr3:uid="{DA7979E1-12D0-4C64-A6DD-57A1C322A8C6}" name="Notes"/>
+    <tableColumn id="11" xr3:uid="{C20D0B62-0410-4DA4-B530-7806C0D21673}" name="Normal Spending 2019"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5187,16 +5290,19 @@
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{742024AD-A049-471D-8C1F-3F14B0A1DEFF}" name="Table2" displayName="Table2" ref="A1:I40" totalsRowShown="0">
   <autoFilter ref="A1:I40" xr:uid="{742024AD-A049-471D-8C1F-3F14B0A1DEFF}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I38">
+    <sortCondition ref="D1:D40"/>
+  </sortState>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{751F608E-3CA5-4EB2-B824-96268C241A6B}" name="Row Labels"/>
     <tableColumn id="2" xr3:uid="{1C31F221-9797-40CD-B143-74FD9517F681}" name="Recipient Type"/>
     <tableColumn id="3" xr3:uid="{7AB38131-7DC9-44F9-9F3F-055D6A9FD546}" name="Level 3"/>
     <tableColumn id="4" xr3:uid="{32CB82BD-CECF-43EF-918E-3C801F7AD6E1}" name="Agency"/>
     <tableColumn id="5" xr3:uid="{CAD31550-E32A-4CAC-A1AE-9286AC3159B0}" name="Government Program"/>
-    <tableColumn id="6" xr3:uid="{6888DF03-6254-4703-BD12-DD5839C69D9F}" name="LocalFiscalRecovery"/>
-    <tableColumn id="7" xr3:uid="{86863F11-2D20-4531-94AD-21173D0AECA4}" name="Illinois"/>
-    <tableColumn id="8" xr3:uid="{8ADC6E22-ADC1-43BF-A642-8770BF2E5966}" name="State of Illinois"/>
-    <tableColumn id="9" xr3:uid="{BFA6269C-50C8-4BDB-9F7C-11D31742ED19}" name="(blank)"/>
+    <tableColumn id="6" xr3:uid="{6888DF03-6254-4703-BD12-DD5839C69D9F}" name="LocalFiscalRecovery" dataDxfId="3" dataCellStyle="Comma"/>
+    <tableColumn id="7" xr3:uid="{86863F11-2D20-4531-94AD-21173D0AECA4}" name="Illinois" dataDxfId="2" dataCellStyle="Comma"/>
+    <tableColumn id="8" xr3:uid="{8ADC6E22-ADC1-43BF-A642-8770BF2E5966}" name="State of Illinois" dataDxfId="1" dataCellStyle="Comma"/>
+    <tableColumn id="9" xr3:uid="{BFA6269C-50C8-4BDB-9F7C-11D31742ED19}" name="(blank)" dataDxfId="0" dataCellStyle="Comma"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5499,10 +5605,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB82A071-B66B-4BBA-B527-9BE9A8C2310F}">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView zoomScale="55" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
@@ -5512,17 +5618,18 @@
     <col min="4" max="4" width="21.09765625" customWidth="1"/>
     <col min="5" max="5" width="10.44921875" customWidth="1"/>
     <col min="6" max="6" width="9.34765625" customWidth="1"/>
-    <col min="7" max="7" width="9" customWidth="1"/>
-    <col min="9" max="9" width="18.09765625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="50.296875" customWidth="1"/>
+    <col min="7" max="8" width="9" customWidth="1"/>
+    <col min="10" max="10" width="18.09765625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="50.296875" customWidth="1"/>
+    <col min="12" max="12" width="23.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>15</v>
@@ -5531,7 +5638,7 @@
         <v>20</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>26</v>
@@ -5540,16 +5647,22 @@
         <v>16</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="L1" s="1" t="s">
+        <v>108</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -5563,19 +5676,22 @@
         <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G2" t="s">
         <v>1</v>
       </c>
       <c r="H2" t="s">
+        <v>115</v>
+      </c>
+      <c r="I2" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="3">
+      <c r="J2" s="3">
         <v>8127000000</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -5586,22 +5702,25 @@
         <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G3" t="s">
         <v>23</v>
       </c>
       <c r="H3" t="s">
+        <v>116</v>
+      </c>
+      <c r="I3" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="3">
+      <c r="J3" s="3">
         <v>5930002892</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -5615,19 +5734,22 @@
         <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G4" t="s">
         <v>4</v>
       </c>
       <c r="H4" t="s">
+        <v>115</v>
+      </c>
+      <c r="I4" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="3">
+      <c r="J4" s="3">
         <v>5054988054</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -5635,7 +5757,7 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>81</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
         <v>30</v>
@@ -5647,16 +5769,19 @@
         <v>4</v>
       </c>
       <c r="H5" t="s">
+        <v>115</v>
+      </c>
+      <c r="I5" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="3">
+      <c r="J5" s="3">
         <v>1615071673</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -5676,16 +5801,19 @@
         <v>5</v>
       </c>
       <c r="H6" t="s">
+        <v>117</v>
+      </c>
+      <c r="I6" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="3">
+      <c r="J6" s="3">
         <v>3462363000</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -5705,16 +5833,19 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I7" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="3">
+      <c r="J7" s="3">
         <v>1440804846</v>
       </c>
-      <c r="J7" t="s">
-        <v>82</v>
+      <c r="K7" t="s">
+        <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -5728,22 +5859,25 @@
         <v>32</v>
       </c>
       <c r="F8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G8" t="s">
         <v>1</v>
       </c>
       <c r="H8" t="s">
+        <v>0</v>
+      </c>
+      <c r="I8" t="s">
         <v>18</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3518945000</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -5754,7 +5888,7 @@
         <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F9" t="s">
         <v>8</v>
@@ -5763,13 +5897,16 @@
         <v>23</v>
       </c>
       <c r="H9" t="s">
+        <v>116</v>
+      </c>
+      <c r="I9" t="s">
         <v>18</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1560856347</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -5780,25 +5917,28 @@
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G10" t="s">
         <v>23</v>
       </c>
       <c r="H10" t="s">
+        <v>116</v>
+      </c>
+      <c r="I10" t="s">
         <v>18</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1394688072</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -5812,25 +5952,28 @@
         <v>22</v>
       </c>
       <c r="E11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G11" t="s">
         <v>4</v>
       </c>
       <c r="H11" t="s">
+        <v>118</v>
+      </c>
+      <c r="I11" t="s">
         <v>18</v>
       </c>
-      <c r="I11" s="3">
+      <c r="J11" s="3">
         <v>677964975</v>
       </c>
-      <c r="J11" t="s">
-        <v>89</v>
+      <c r="K11" t="s">
+        <v>88</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -5838,28 +5981,31 @@
         <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D12" t="s">
         <v>32</v>
       </c>
       <c r="E12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G12" t="s">
         <v>0</v>
       </c>
       <c r="H12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I12" t="s">
         <v>18</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>695541441</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -5867,28 +6013,31 @@
         <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D13" t="s">
         <v>80</v>
       </c>
       <c r="E13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G13" t="s">
         <v>0</v>
       </c>
       <c r="H13" t="s">
+        <v>0</v>
+      </c>
+      <c r="I13" t="s">
         <v>18</v>
       </c>
-      <c r="I13" s="3">
+      <c r="J13" s="3">
         <v>165000000</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -5902,22 +6051,25 @@
         <v>32</v>
       </c>
       <c r="F14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G14" t="s">
         <v>5</v>
       </c>
       <c r="H14" t="s">
+        <v>117</v>
+      </c>
+      <c r="I14" t="s">
         <v>18</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>2636263219</v>
       </c>
-      <c r="J14" t="s">
-        <v>83</v>
+      <c r="K14" t="s">
+        <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -5937,16 +6089,19 @@
         <v>30</v>
       </c>
       <c r="H15" t="s">
+        <v>119</v>
+      </c>
+      <c r="I15" t="s">
         <v>18</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>4984990736</v>
       </c>
-      <c r="J15" t="s">
-        <v>90</v>
+      <c r="K15" t="s">
+        <v>89</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -5960,7 +6115,7 @@
         <v>30</v>
       </c>
       <c r="E16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F16" t="s">
         <v>30</v>
@@ -5969,13 +6124,16 @@
         <v>0</v>
       </c>
       <c r="H16" t="s">
+        <v>0</v>
+      </c>
+      <c r="I16" t="s">
         <v>18</v>
       </c>
-      <c r="I16" s="3">
+      <c r="J16" s="3">
         <v>71000000</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>31</v>
       </c>
@@ -5995,16 +6153,19 @@
         <v>5</v>
       </c>
       <c r="H17" t="s">
+        <v>117</v>
+      </c>
+      <c r="I17" t="s">
         <v>18</v>
       </c>
-      <c r="I17" s="4">
+      <c r="J17" s="4">
         <v>2440888026</v>
       </c>
-      <c r="J17" s="5" t="s">
+      <c r="K17" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>31</v>
       </c>
@@ -6024,18 +6185,21 @@
         <v>5</v>
       </c>
       <c r="H18" t="s">
+        <v>117</v>
+      </c>
+      <c r="I18" t="s">
         <v>18</v>
       </c>
-      <c r="I18" s="4">
+      <c r="J18" s="4">
         <v>2028354219</v>
       </c>
-      <c r="J18" s="5" t="s">
+      <c r="K18" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B19" t="s">
         <v>30</v>
@@ -6050,24 +6214,27 @@
         <v>64</v>
       </c>
       <c r="F19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G19" t="s">
         <v>5</v>
       </c>
       <c r="H19" t="s">
+        <v>117</v>
+      </c>
+      <c r="I19" t="s">
         <v>18</v>
       </c>
-      <c r="I19" s="4">
+      <c r="J19" s="4">
         <v>2778017202</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C20" t="s">
         <v>11</v>
@@ -6076,30 +6243,36 @@
         <v>22</v>
       </c>
       <c r="E20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G20" t="s">
         <v>4</v>
       </c>
       <c r="H20" t="s">
+        <v>118</v>
+      </c>
+      <c r="I20" t="s">
         <v>18</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>2298709129</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
         <v>27</v>
       </c>
+      <c r="L20">
+        <v>1679195166.0999999</v>
+      </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C21" t="s">
         <v>30</v>
@@ -6108,7 +6281,7 @@
         <v>30</v>
       </c>
       <c r="E21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F21" t="s">
         <v>30</v>
@@ -6117,10 +6290,16 @@
         <v>0</v>
       </c>
       <c r="H21" t="s">
+        <v>0</v>
+      </c>
+      <c r="I21" t="s">
         <v>18</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>771926678</v>
+      </c>
+      <c r="L21">
+        <v>150000000</v>
       </c>
     </row>
   </sheetData>
@@ -6133,11 +6312,145 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46D7CDF9-9D6C-4F7A-BF62-5972A909C6B2}">
+  <dimension ref="A2:I6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="4" max="7" width="17.046875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D2">
+        <v>2019</v>
+      </c>
+      <c r="E2">
+        <v>2020</v>
+      </c>
+      <c r="F2">
+        <v>2021</v>
+      </c>
+      <c r="G2">
+        <v>2022</v>
+      </c>
+      <c r="I2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D3" s="3">
+        <v>5942081608.6500006</v>
+      </c>
+      <c r="E3" s="3">
+        <v>9705122429.5299969</v>
+      </c>
+      <c r="F3" s="3">
+        <v>9209680510.2599964</v>
+      </c>
+      <c r="G3" s="3">
+        <v>19381026818.310009</v>
+      </c>
+      <c r="I3" s="7">
+        <f>G3-D3</f>
+        <v>13438945209.660007</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D4" s="3">
+        <v>12066820196.85</v>
+      </c>
+      <c r="E4" s="3">
+        <v>13841846912.219999</v>
+      </c>
+      <c r="F4" s="3">
+        <v>17555618780.630001</v>
+      </c>
+      <c r="G4" s="3">
+        <v>19045021181.68</v>
+      </c>
+      <c r="I4" s="7">
+        <f t="shared" ref="I4:I6" si="0">G4-D4</f>
+        <v>6978200984.8299999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1362675926.1899998</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1783520515.6999998</v>
+      </c>
+      <c r="F5" s="3">
+        <v>2379563489.73</v>
+      </c>
+      <c r="G5" s="3">
+        <v>1833562809.4699998</v>
+      </c>
+      <c r="I5" s="7">
+        <f t="shared" si="0"/>
+        <v>470886883.27999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="2">
+        <v>19371577731.689999</v>
+      </c>
+      <c r="E6" s="2">
+        <v>25330489857.449997</v>
+      </c>
+      <c r="F6" s="2">
+        <v>29144862780.619999</v>
+      </c>
+      <c r="G6" s="2">
+        <v>40259610809.460007</v>
+      </c>
+      <c r="I6" s="7">
+        <f t="shared" si="0"/>
+        <v>20888033077.770008</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFED6DBB-ACB3-4FD1-BA06-A6551DBAA395}">
   <dimension ref="A1:V6"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="81" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView zoomScale="81" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:F2 B4:F6"/>
+      <pivotSelection pane="bottomRight" showHeader="1" extendable="1" max="21" activeRow="1" activeCol="1" click="1" r:id="rId1">
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="0" count="1">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotSelection>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
@@ -6178,10 +6491,10 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.55000000000000004">
@@ -6189,31 +6502,31 @@
         <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H2" t="s">
         <v>3</v>
       </c>
       <c r="N2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O2" t="s">
         <v>31</v>
       </c>
       <c r="P2" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>95</v>
+      </c>
+      <c r="R2" t="s">
         <v>103</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="S2" t="s">
         <v>96</v>
       </c>
-      <c r="R2" t="s">
+      <c r="U2" t="s">
         <v>104</v>
-      </c>
-      <c r="S2" t="s">
-        <v>97</v>
-      </c>
-      <c r="U2" t="s">
-        <v>105</v>
       </c>
       <c r="V2" t="s">
         <v>78</v>
@@ -6439,12 +6752,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9BDA4FF-EE12-4797-A020-C5630B964763}">
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
@@ -6452,10 +6765,10 @@
     <col min="1" max="1" width="12.44921875" customWidth="1"/>
     <col min="2" max="2" width="15.25" customWidth="1"/>
     <col min="5" max="5" width="21.25" customWidth="1"/>
-    <col min="6" max="6" width="20.1484375" customWidth="1"/>
-    <col min="7" max="7" width="24.1484375" customWidth="1"/>
-    <col min="8" max="8" width="15.1484375" customWidth="1"/>
-    <col min="9" max="9" width="26.19921875" customWidth="1"/>
+    <col min="6" max="6" width="20.1484375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="24.1484375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="15.1484375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="26.19921875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -6474,16 +6787,16 @@
       <c r="E1" t="s">
         <v>40</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="3" t="s">
         <v>35</v>
       </c>
     </row>
@@ -6492,13 +6805,19 @@
         <v>41</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I2">
-        <v>83246346</v>
+        <v>47</v>
+      </c>
+      <c r="D2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2" s="3">
+        <v>20439923</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -6506,13 +6825,19 @@
         <v>41</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
-      </c>
-      <c r="I3">
-        <v>3462363000</v>
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I3" s="3">
+        <v>30650898</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -6523,56 +6848,59 @@
         <v>46</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="E4" t="s">
-        <v>49</v>
-      </c>
-      <c r="I4">
-        <v>20439923</v>
+        <v>57</v>
+      </c>
+      <c r="I4" s="3">
+        <v>1584420775</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="B5" t="s">
         <v>46</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E5" t="s">
-        <v>51</v>
-      </c>
-      <c r="I5">
-        <v>496853094</v>
+        <v>57</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1560856347</v>
+      </c>
+      <c r="G5" s="3">
+        <v>57457865</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="D6" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E6" t="s">
-        <v>52</v>
-      </c>
-      <c r="I6">
-        <v>796272357</v>
+        <v>57</v>
+      </c>
+      <c r="I6" s="3">
+        <v>355482847</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -6583,19 +6911,16 @@
         <v>46</v>
       </c>
       <c r="C7" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D7" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F7">
-        <v>5930002892</v>
-      </c>
-      <c r="H7">
-        <v>8127679949</v>
+        <v>51</v>
+      </c>
+      <c r="I7" s="3">
+        <v>496853094</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -6606,132 +6931,161 @@
         <v>46</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
-      </c>
-      <c r="G8">
-        <v>5058601934</v>
+        <v>47</v>
+      </c>
+      <c r="D8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" t="s">
+        <v>52</v>
+      </c>
+      <c r="I8" s="3">
+        <v>796272357</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>63</v>
       </c>
       <c r="D9" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E9" t="s">
-        <v>56</v>
-      </c>
-      <c r="I9">
-        <v>30650898</v>
+        <v>64</v>
+      </c>
+      <c r="I9" s="3">
+        <v>2636263219</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="B10" t="s">
         <v>46</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="D10" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E10" t="s">
-        <v>57</v>
-      </c>
-      <c r="I10">
-        <v>1584420775</v>
+        <v>51</v>
+      </c>
+      <c r="I10" s="3">
+        <v>118420119</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="C11" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="D11" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="E11" t="s">
-        <v>60</v>
-      </c>
-      <c r="I11">
-        <v>13342228.25</v>
+        <v>65</v>
+      </c>
+      <c r="I11" s="3">
+        <v>47232781</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
-        <v>61</v>
-      </c>
-      <c r="F12">
-        <v>5930002892</v>
-      </c>
-      <c r="G12">
-        <v>5058601934</v>
-      </c>
-      <c r="H12">
-        <v>8127679949</v>
-      </c>
-      <c r="I12">
-        <v>6487588621.25</v>
+        <v>62</v>
+      </c>
+      <c r="B12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" t="s">
+        <v>69</v>
+      </c>
+      <c r="I12" s="3">
+        <v>25855403</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" s="3">
+        <v>2440888026</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
-        <v>62</v>
+        <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="C14" t="s">
-        <v>63</v>
+        <v>6</v>
       </c>
       <c r="D14" t="s">
         <v>50</v>
       </c>
       <c r="E14" t="s">
-        <v>64</v>
-      </c>
-      <c r="I14">
-        <v>2636263219</v>
+        <v>5</v>
+      </c>
+      <c r="G14" s="3">
+        <v>2028354219</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="B15" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="C15" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D15" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="E15" t="s">
-        <v>60</v>
-      </c>
-      <c r="I15">
-        <v>695541441</v>
+        <v>64</v>
+      </c>
+      <c r="I15" s="3">
+        <v>2778017202</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="B16" t="s">
         <v>46</v>
@@ -6745,28 +7099,31 @@
       <c r="E16" t="s">
         <v>51</v>
       </c>
-      <c r="I16">
-        <v>118420119</v>
+      <c r="I16" s="3">
+        <v>331954027</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="B17" t="s">
         <v>46</v>
       </c>
       <c r="C17" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D17" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E17" t="s">
-        <v>65</v>
-      </c>
-      <c r="I17">
-        <v>47232781</v>
+        <v>53</v>
+      </c>
+      <c r="F17" s="3">
+        <v>5930002892</v>
+      </c>
+      <c r="H17" s="3">
+        <v>8127679949</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -6785,28 +7142,34 @@
       <c r="E18" t="s">
         <v>66</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="3">
         <v>1394688072</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="3">
         <v>4913633437</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="3">
         <v>3518945366</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="B19" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="C19" t="s">
-        <v>43</v>
-      </c>
-      <c r="G19">
-        <v>677964975</v>
+        <v>58</v>
+      </c>
+      <c r="D19" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" t="s">
+        <v>60</v>
+      </c>
+      <c r="I19" s="3">
+        <v>13342228.25</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -6814,183 +7177,139 @@
         <v>62</v>
       </c>
       <c r="B20" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C20" t="s">
-        <v>67</v>
-      </c>
-      <c r="G20">
-        <v>13899434</v>
+        <v>58</v>
+      </c>
+      <c r="D20" t="s">
+        <v>59</v>
+      </c>
+      <c r="E20" t="s">
+        <v>60</v>
+      </c>
+      <c r="I20" s="3">
+        <v>695541441</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="B21" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" t="s">
-        <v>55</v>
-      </c>
-      <c r="E21" t="s">
-        <v>57</v>
-      </c>
-      <c r="F21">
-        <v>1560856347</v>
-      </c>
-      <c r="G21">
-        <v>57457865</v>
+        <v>43</v>
+      </c>
+      <c r="I21" s="3">
+        <v>83246346</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="B22" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="C22" t="s">
-        <v>47</v>
-      </c>
-      <c r="D22" t="s">
-        <v>50</v>
-      </c>
-      <c r="E22" t="s">
-        <v>69</v>
-      </c>
-      <c r="I22">
-        <v>25855403</v>
+        <v>45</v>
+      </c>
+      <c r="I22" s="3">
+        <v>3462363000</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
-        <v>70</v>
-      </c>
-      <c r="F23">
-        <v>2955544419</v>
-      </c>
-      <c r="G23">
-        <v>5662955711</v>
-      </c>
-      <c r="H23">
-        <v>3518945366</v>
-      </c>
-      <c r="I23">
-        <v>3523312963</v>
+        <v>41</v>
+      </c>
+      <c r="B23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" t="s">
+        <v>43</v>
+      </c>
+      <c r="G23" s="3">
+        <v>5058601934</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" t="s">
-        <v>7</v>
-      </c>
-      <c r="B25" t="s">
-        <v>46</v>
-      </c>
-      <c r="C25" t="s">
-        <v>71</v>
-      </c>
-      <c r="D25" t="s">
-        <v>50</v>
-      </c>
-      <c r="E25" t="s">
-        <v>5</v>
-      </c>
-      <c r="G25">
-        <v>2440888026</v>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" t="s">
+        <v>61</v>
+      </c>
+      <c r="F24" s="3">
+        <v>5930002892</v>
+      </c>
+      <c r="G24" s="3">
+        <v>5058601934</v>
+      </c>
+      <c r="H24" s="3">
+        <v>8127679949</v>
+      </c>
+      <c r="I24" s="3">
+        <v>6487588621.25</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
-        <v>7</v>
+        <v>62</v>
       </c>
       <c r="B26" t="s">
         <v>46</v>
       </c>
       <c r="C26" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" t="s">
-        <v>50</v>
-      </c>
-      <c r="E26" t="s">
-        <v>5</v>
-      </c>
-      <c r="G26">
-        <v>2028354219</v>
+        <v>43</v>
+      </c>
+      <c r="G26" s="3">
+        <v>677964975</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
-        <v>72</v>
-      </c>
-      <c r="G27">
-        <v>4469242245</v>
+        <v>62</v>
+      </c>
+      <c r="B27" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" t="s">
+        <v>67</v>
+      </c>
+      <c r="G27" s="3">
+        <v>13899434</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" t="s">
-        <v>73</v>
-      </c>
-      <c r="B29" t="s">
-        <v>29</v>
-      </c>
-      <c r="C29" t="s">
-        <v>63</v>
-      </c>
-      <c r="D29" t="s">
-        <v>50</v>
-      </c>
-      <c r="E29" t="s">
-        <v>64</v>
-      </c>
-      <c r="I29">
-        <v>2778017202</v>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" t="s">
+        <v>70</v>
+      </c>
+      <c r="F28" s="3">
+        <v>2955544419</v>
+      </c>
+      <c r="G28" s="3">
+        <v>5662955711</v>
+      </c>
+      <c r="H28" s="3">
+        <v>3518945366</v>
+      </c>
+      <c r="I28" s="3">
+        <v>3523312963</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
-        <v>74</v>
-      </c>
-      <c r="I30">
-        <v>2778017202</v>
+        <v>72</v>
+      </c>
+      <c r="G30" s="3">
+        <v>4469242245</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
-        <v>75</v>
-      </c>
-      <c r="B32" t="s">
-        <v>42</v>
-      </c>
-      <c r="C32" t="s">
-        <v>43</v>
-      </c>
-      <c r="I32">
-        <v>84489804</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" t="s">
-        <v>75</v>
-      </c>
-      <c r="B33" t="s">
-        <v>46</v>
-      </c>
-      <c r="C33" t="s">
-        <v>47</v>
-      </c>
-      <c r="D33" t="s">
-        <v>50</v>
-      </c>
-      <c r="E33" t="s">
-        <v>51</v>
-      </c>
-      <c r="I33">
-        <v>331954027</v>
+        <v>74</v>
+      </c>
+      <c r="I32" s="3">
+        <v>2778017202</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -6998,13 +7317,13 @@
         <v>75</v>
       </c>
       <c r="B34" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C34" t="s">
         <v>43</v>
       </c>
-      <c r="G34">
-        <v>2298709129</v>
+      <c r="I34" s="3">
+        <v>84489804</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -7012,29 +7331,23 @@
         <v>75</v>
       </c>
       <c r="B35" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="C35" t="s">
-        <v>76</v>
-      </c>
-      <c r="D35" t="s">
-        <v>55</v>
-      </c>
-      <c r="E35" t="s">
-        <v>57</v>
-      </c>
-      <c r="I35">
-        <v>355482847</v>
+        <v>43</v>
+      </c>
+      <c r="G35" s="3">
+        <v>2298709129</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
         <v>77</v>
       </c>
-      <c r="G36">
+      <c r="G36" s="3">
         <v>2298709129</v>
       </c>
-      <c r="I36">
+      <c r="I36" s="3">
         <v>771926678</v>
       </c>
     </row>
@@ -7042,16 +7355,16 @@
       <c r="A38" t="s">
         <v>78</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="3">
         <v>8885547311</v>
       </c>
-      <c r="G38">
+      <c r="G38" s="3">
         <v>17489509019</v>
       </c>
-      <c r="H38">
+      <c r="H38" s="3">
         <v>11646625315</v>
       </c>
-      <c r="I38">
+      <c r="I38" s="3">
         <v>13560845464.25</v>
       </c>
     </row>
@@ -7061,4 +7374,118 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2822F76-1BC2-4CD5-951F-CE8DC3015B48}">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="D1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D2">
+        <v>2.7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D4">
+        <v>1.5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D5">
+        <v>1.82</v>
+      </c>
+      <c r="E5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D6">
+        <v>1.3660000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/federalcoviddollars.xlsx
+++ b/federalcoviddollars.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleaw\OneDrive\Documents\PhD Fall 2021 - Spring 2022\Merriman RA\Fiscal Futures FY2022\Fiscal-Future-Topics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{230B3106-8CF7-42B5-81A6-4FE5324D2B99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C88A9DD2-52BA-4A21-9B49-BDAFCAF1C7B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21300" yWindow="-11955" windowWidth="8640" windowHeight="4545" xr2:uid="{85440E55-7C44-4F4B-A24B-5EBBF184EC98}"/>
+    <workbookView xWindow="11298" yWindow="7854" windowWidth="17280" windowHeight="8994" xr2:uid="{85440E55-7C44-4F4B-A24B-5EBBF184EC98}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="134">
   <si>
     <t>Federal Other</t>
   </si>
@@ -95,346 +95,352 @@
     <t>FY</t>
   </si>
   <si>
+    <t>Dollars Received</t>
+  </si>
+  <si>
+    <t>Recipient</t>
+  </si>
+  <si>
+    <t>Illinois</t>
+  </si>
+  <si>
+    <t>ISBE</t>
+  </si>
+  <si>
+    <t>Excluded</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Originally deposited into Disaster Reponse Fund and then mostly transferred to State CURE</t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t>Compare to normal federal funding!</t>
+  </si>
+  <si>
+    <t>Excluded-Local Transfer. Would be for general covid recvery (Com Dev?)</t>
+  </si>
+  <si>
+    <t>Health Provider</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Families First</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>LocalFiscalRecovery</t>
+  </si>
+  <si>
+    <t>State of Illinois</t>
+  </si>
+  <si>
+    <t>(blank)</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Recipient Type</t>
+  </si>
+  <si>
+    <t>Level 3</t>
+  </si>
+  <si>
+    <t>Agency</t>
+  </si>
+  <si>
+    <t>Government Program</t>
+  </si>
+  <si>
+    <t>American Rescue Plan</t>
+  </si>
+  <si>
+    <t>Education Provider</t>
+  </si>
+  <si>
+    <t>Education Funding</t>
+  </si>
+  <si>
+    <t>Household</t>
+  </si>
+  <si>
+    <t>Child Tax Credit Expansion</t>
+  </si>
+  <si>
+    <t>State &amp; Local Government</t>
+  </si>
+  <si>
+    <t>Child &amp; Family Services</t>
+  </si>
+  <si>
+    <t>Department of Health and Human Services</t>
+  </si>
+  <si>
+    <t>Temporary Assistance for Needy Families</t>
+  </si>
+  <si>
+    <t>HHS</t>
+  </si>
+  <si>
+    <t>Child Care &amp; Development Block Grant</t>
+  </si>
+  <si>
+    <t>Child Care Stabilization Grant Program</t>
+  </si>
+  <si>
+    <t>Coronavirus State and Local Fiscal Recovery Funds</t>
+  </si>
+  <si>
+    <t>Treasury</t>
+  </si>
+  <si>
+    <t>Department of Transportation</t>
+  </si>
+  <si>
+    <t>Capital Investment Grants Program</t>
+  </si>
+  <si>
+    <t>Federal Transit Administration</t>
+  </si>
+  <si>
+    <t>Nutrition Funding</t>
+  </si>
+  <si>
+    <t>US Department of Agriculture</t>
+  </si>
+  <si>
+    <t>Supplemental Nutrition Assistance Program</t>
+  </si>
+  <si>
+    <t>American Rescue Plan Total</t>
+  </si>
+  <si>
+    <t>CARES Act</t>
+  </si>
+  <si>
+    <t>Grants to Health Providers</t>
+  </si>
+  <si>
+    <t>Provider Relief Fund</t>
+  </si>
+  <si>
+    <t>Community Services Block Grant</t>
+  </si>
+  <si>
+    <t>Coronavirus Relief Fund</t>
+  </si>
+  <si>
+    <t>Election Security Grants</t>
+  </si>
+  <si>
+    <t>State &amp; Local Government;Other</t>
+  </si>
+  <si>
+    <t>Head Start</t>
+  </si>
+  <si>
+    <t>CARES Act Total</t>
+  </si>
+  <si>
+    <t>Medicaid Continuous Coverage Requirement</t>
+  </si>
+  <si>
+    <t>Families First Act Total</t>
+  </si>
+  <si>
+    <t>PPP &amp; Health Care Enhancement Act</t>
+  </si>
+  <si>
+    <t>PPP &amp; Health Care Enhancement Act Total</t>
+  </si>
+  <si>
+    <t>Response &amp; Relief Act</t>
+  </si>
+  <si>
+    <t>State Transportation Infrastructure Grants</t>
+  </si>
+  <si>
+    <t>Response &amp; Relief Act Total</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>TANF</t>
+  </si>
+  <si>
+    <t>Human Services</t>
+  </si>
+  <si>
+    <t>Sum of Other items minus TANF &amp; Transit</t>
+  </si>
+  <si>
+    <t>Healthcare Provider Relief Fund - Considered as Medicaid rev</t>
+  </si>
+  <si>
+    <t>Healthcare</t>
+  </si>
+  <si>
+    <t>Edu</t>
+  </si>
+  <si>
+    <t>Gen. Recovery</t>
+  </si>
+  <si>
+    <t>Fund</t>
+  </si>
+  <si>
+    <t>Education Stabilization Fund</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 569 million normal Education stabilization fund + Governors emergency Education GEER fund 108.5 milloin</t>
+  </si>
+  <si>
+    <t>Other money that went to Illinois but not the "State of Illinois" minus Education 677 million</t>
+  </si>
+  <si>
+    <t>SNAP</t>
+  </si>
+  <si>
+    <t>Child &amp; Fam Serv</t>
+  </si>
+  <si>
+    <t>Child Care &amp; Development Block Grant &amp; Community Services Block Grant</t>
+  </si>
+  <si>
+    <t>Election Security, Airlines</t>
+  </si>
+  <si>
+    <t>Child Care &amp; Development Block Grant, transportation, private schools</t>
+  </si>
+  <si>
+    <t>Local Govs-Excluded</t>
+  </si>
+  <si>
+    <t>Legislation2</t>
+  </si>
+  <si>
+    <t>CRRSA</t>
+  </si>
+  <si>
+    <t>Normal Spending 2019</t>
+  </si>
+  <si>
+    <t>Federal - Other</t>
+  </si>
+  <si>
+    <t>Federal Medicaid Reimbursements</t>
+  </si>
+  <si>
+    <t>Federal Transportation</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>2022-2019</t>
+  </si>
+  <si>
+    <t>FedRevCat</t>
+  </si>
+  <si>
+    <t>Federal-Other</t>
+  </si>
+  <si>
+    <t>Local Transfers-Excluded</t>
+  </si>
+  <si>
+    <t>Federal Medicaid</t>
+  </si>
+  <si>
+    <t>Federal K-12</t>
+  </si>
+  <si>
+    <t>UI Fund</t>
+  </si>
+  <si>
+    <t>Capital</t>
+  </si>
+  <si>
+    <t>FY23</t>
+  </si>
+  <si>
+    <t>Rev Replacement??</t>
+  </si>
+  <si>
+    <t>ProgramsFY22</t>
+  </si>
+  <si>
+    <t>2.7?</t>
+  </si>
+  <si>
+    <t>ProgramsFy23</t>
+  </si>
+  <si>
+    <t>Spent</t>
+  </si>
+  <si>
+    <t>FY Spent</t>
+  </si>
+  <si>
+    <t>Allocated</t>
+  </si>
+  <si>
+    <t>State_Local</t>
+  </si>
+  <si>
+    <t>Local Govs</t>
+  </si>
+  <si>
+    <t>State Departments</t>
+  </si>
+  <si>
+    <t>Broad Category</t>
+  </si>
+  <si>
+    <t>State Government</t>
+  </si>
+  <si>
+    <t>Health Provider Fund</t>
+  </si>
+  <si>
+    <t>Law Total</t>
+  </si>
+  <si>
+    <t>CRSSA</t>
+  </si>
+  <si>
+    <t>Recipient Type Amount</t>
+  </si>
+  <si>
+    <t>Part of ARPA State AND Local funds 14.1 Billion</t>
+  </si>
+  <si>
+    <t>FY20</t>
+  </si>
+  <si>
     <t>FY21</t>
   </si>
   <si>
-    <t>Dollars Received</t>
-  </si>
-  <si>
-    <t>Recipient</t>
-  </si>
-  <si>
-    <t>Illinois</t>
-  </si>
-  <si>
-    <t>ISBE</t>
-  </si>
-  <si>
-    <t>Excluded</t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>Originally deposited into Disaster Reponse Fund and then mostly transferred to State CURE</t>
-  </si>
-  <si>
-    <t>Purpose</t>
-  </si>
-  <si>
-    <t>Compare to normal federal funding!</t>
-  </si>
-  <si>
-    <t>Excluded-Local Transfer. Would be for general covid recvery (Com Dev?)</t>
-  </si>
-  <si>
-    <t>Health Provider</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Families First</t>
-  </si>
-  <si>
-    <t>State</t>
-  </si>
-  <si>
-    <t>LocalFiscalRecovery</t>
-  </si>
-  <si>
-    <t>State of Illinois</t>
-  </si>
-  <si>
-    <t>(blank)</t>
-  </si>
-  <si>
-    <t>Row Labels</t>
-  </si>
-  <si>
-    <t>Recipient Type</t>
-  </si>
-  <si>
-    <t>Level 3</t>
-  </si>
-  <si>
-    <t>Agency</t>
-  </si>
-  <si>
-    <t>Government Program</t>
-  </si>
-  <si>
-    <t>American Rescue Plan</t>
-  </si>
-  <si>
-    <t>Education Provider</t>
-  </si>
-  <si>
-    <t>Education Funding</t>
-  </si>
-  <si>
-    <t>Household</t>
-  </si>
-  <si>
-    <t>Child Tax Credit Expansion</t>
-  </si>
-  <si>
-    <t>State &amp; Local Government</t>
-  </si>
-  <si>
-    <t>Child &amp; Family Services</t>
-  </si>
-  <si>
-    <t>Department of Health and Human Services</t>
-  </si>
-  <si>
-    <t>Temporary Assistance for Needy Families</t>
-  </si>
-  <si>
-    <t>HHS</t>
-  </si>
-  <si>
-    <t>Child Care &amp; Development Block Grant</t>
-  </si>
-  <si>
-    <t>Child Care Stabilization Grant Program</t>
-  </si>
-  <si>
-    <t>Coronavirus State and Local Fiscal Recovery Funds</t>
-  </si>
-  <si>
-    <t>Treasury</t>
-  </si>
-  <si>
-    <t>Department of Transportation</t>
-  </si>
-  <si>
-    <t>Capital Investment Grants Program</t>
-  </si>
-  <si>
-    <t>Federal Transit Administration</t>
-  </si>
-  <si>
-    <t>Nutrition Funding</t>
-  </si>
-  <si>
-    <t>US Department of Agriculture</t>
-  </si>
-  <si>
-    <t>Supplemental Nutrition Assistance Program</t>
-  </si>
-  <si>
-    <t>American Rescue Plan Total</t>
-  </si>
-  <si>
-    <t>CARES Act</t>
-  </si>
-  <si>
-    <t>Grants to Health Providers</t>
-  </si>
-  <si>
-    <t>Provider Relief Fund</t>
-  </si>
-  <si>
-    <t>Community Services Block Grant</t>
-  </si>
-  <si>
-    <t>Coronavirus Relief Fund</t>
-  </si>
-  <si>
-    <t>Election Security Grants</t>
-  </si>
-  <si>
-    <t>State &amp; Local Government;Other</t>
-  </si>
-  <si>
-    <t>Head Start</t>
-  </si>
-  <si>
-    <t>CARES Act Total</t>
-  </si>
-  <si>
-    <t>Medicaid Continuous Coverage Requirement</t>
-  </si>
-  <si>
-    <t>Families First Act Total</t>
-  </si>
-  <si>
-    <t>PPP &amp; Health Care Enhancement Act</t>
-  </si>
-  <si>
-    <t>PPP &amp; Health Care Enhancement Act Total</t>
-  </si>
-  <si>
-    <t>Response &amp; Relief Act</t>
-  </si>
-  <si>
-    <t>State Transportation Infrastructure Grants</t>
-  </si>
-  <si>
-    <t>Response &amp; Relief Act Total</t>
-  </si>
-  <si>
-    <t>Grand Total</t>
-  </si>
-  <si>
-    <t>TANF</t>
-  </si>
-  <si>
-    <t>Human Services</t>
-  </si>
-  <si>
-    <t>Sum of Other items minus TANF &amp; Transit</t>
-  </si>
-  <si>
-    <t>Healthcare Provider Relief Fund - Considered as Medicaid rev</t>
-  </si>
-  <si>
-    <t>Healthcare</t>
-  </si>
-  <si>
-    <t>Edu</t>
-  </si>
-  <si>
-    <t>Gen. Recovery</t>
-  </si>
-  <si>
-    <t>Fund</t>
-  </si>
-  <si>
-    <t>Education Stabilization Fund</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 569 million normal Education stabilization fund + Governors emergency Education GEER fund 108.5 milloin</t>
-  </si>
-  <si>
-    <t>Other money that went to Illinois but not the "State of Illinois" minus Education 677 million</t>
-  </si>
-  <si>
-    <t>Nutrition</t>
-  </si>
-  <si>
-    <t>SNAP</t>
-  </si>
-  <si>
-    <t>Child &amp; Fam Serv</t>
-  </si>
-  <si>
-    <t>Child Care &amp; Development Block Grant &amp; Community Services Block Grant</t>
-  </si>
-  <si>
-    <t>Election Security, Airlines</t>
-  </si>
-  <si>
-    <t>PPP &amp; HealthCare</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Response &amp;Relief </t>
-  </si>
-  <si>
-    <t>Child Care &amp; Development Block Grant, transportation, private schools</t>
-  </si>
-  <si>
-    <t>Local Govs-Excluded</t>
-  </si>
-  <si>
-    <t>Legislation2</t>
-  </si>
-  <si>
-    <t>CRRSA</t>
-  </si>
-  <si>
-    <t>Normal Spending 2019</t>
-  </si>
-  <si>
-    <t>Federal - Other</t>
-  </si>
-  <si>
-    <t>Federal Medicaid Reimbursements</t>
-  </si>
-  <si>
-    <t>Federal Transportation</t>
-  </si>
-  <si>
-    <t>Year</t>
-  </si>
-  <si>
-    <t>2022-2019</t>
-  </si>
-  <si>
-    <t>FedRevCat</t>
-  </si>
-  <si>
-    <t>Federal-Other</t>
-  </si>
-  <si>
-    <t>Local Transfers-Excluded</t>
-  </si>
-  <si>
-    <t>Federal Medicaid</t>
-  </si>
-  <si>
-    <t>Federal K-12</t>
-  </si>
-  <si>
-    <t>UI Fund</t>
-  </si>
-  <si>
-    <t>Capital</t>
-  </si>
-  <si>
-    <t>FY23</t>
-  </si>
-  <si>
-    <t>Rev Replacement??</t>
-  </si>
-  <si>
-    <t>ProgramsFY22</t>
-  </si>
-  <si>
-    <t>2.7?</t>
-  </si>
-  <si>
-    <t>ProgramsFy23</t>
-  </si>
-  <si>
-    <t>Spent</t>
-  </si>
-  <si>
-    <t>FY Spent</t>
-  </si>
-  <si>
-    <t>Allocated</t>
-  </si>
-  <si>
-    <t>State_Local</t>
-  </si>
-  <si>
-    <t>Local Govs</t>
-  </si>
-  <si>
-    <t>State Departments</t>
-  </si>
-  <si>
-    <t>Broad Category</t>
-  </si>
-  <si>
-    <t>State Government</t>
-  </si>
-  <si>
-    <t>Health Provider Fund</t>
-  </si>
-  <si>
-    <t>Law Total</t>
-  </si>
-  <si>
-    <t>CRSSA</t>
-  </si>
-  <si>
-    <t>Recipient Type Amount</t>
-  </si>
-  <si>
-    <t>Part of ARPA State AND Local funds 14.1 Billion</t>
+    <t>FF_Cat2</t>
+  </si>
+  <si>
+    <t>Other Federal Revenue</t>
+  </si>
+  <si>
+    <t>PPP &amp; Health Care</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Response &amp; Relief </t>
   </si>
 </sst>
 </file>
@@ -579,12 +585,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7307C173-B5A8-415C-816E-E5204417BCF6}" name="Table1" displayName="Table1" ref="A1:P22" totalsRowShown="0" headerRowDxfId="7">
-  <autoFilter ref="A1:P22" xr:uid="{7307C173-B5A8-415C-816E-E5204417BCF6}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7307C173-B5A8-415C-816E-E5204417BCF6}" name="Table1" displayName="Table1" ref="A1:Q22" totalsRowShown="0" headerRowDxfId="7">
+  <autoFilter ref="A1:Q22" xr:uid="{7307C173-B5A8-415C-816E-E5204417BCF6}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P16">
     <sortCondition ref="A1:A16"/>
   </sortState>
-  <tableColumns count="16">
+  <tableColumns count="17">
     <tableColumn id="1" xr3:uid="{8163EC4D-009A-40FF-9229-6E891FB726B7}" name="Legislation"/>
     <tableColumn id="15" xr3:uid="{1FEBC966-86AC-4D2C-92C2-C1CD0A685BD6}" name="Law Total"/>
     <tableColumn id="16" xr3:uid="{E165A898-E314-4F71-AD05-5E8E48123AA0}" name="Recipient Type Amount" dataDxfId="6"/>
@@ -595,6 +601,7 @@
     <tableColumn id="3" xr3:uid="{A82033BA-F431-4547-894C-F29C06EF1849}" name="Recipient"/>
     <tableColumn id="9" xr3:uid="{FA7BFC94-6DAB-48D1-8E20-602FB4C4821C}" name="Fund"/>
     <tableColumn id="4" xr3:uid="{8B66ADA8-3D64-4999-AF9E-0DCECDB0CFDA}" name="Purpose"/>
+    <tableColumn id="17" xr3:uid="{6127FB03-EB5A-466A-A0C0-F2B24523B085}" name="FF_Cat2"/>
     <tableColumn id="5" xr3:uid="{D7BE3FF4-025D-48AC-85BC-582B164E67AF}" name="FF_Cat"/>
     <tableColumn id="12" xr3:uid="{F4DF1D9B-D6F1-4E5B-9116-A9EC7B0CFC4F}" name="FedRevCat"/>
     <tableColumn id="6" xr3:uid="{B76CE084-47E0-4941-8B7B-58AC5FF2037D}" name="FY"/>
@@ -916,7 +923,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -924,80 +931,85 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB82A071-B66B-4BBA-B527-9BE9A8C2310F}">
-  <dimension ref="A1:Q22"/>
+  <dimension ref="A1:R22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="57" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="87" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="23.796875" customWidth="1"/>
+    <col min="1" max="1" width="9.3984375" customWidth="1"/>
     <col min="2" max="3" width="15.3984375" customWidth="1"/>
     <col min="4" max="4" width="9.8984375" customWidth="1"/>
-    <col min="5" max="5" width="15.69921875" customWidth="1"/>
+    <col min="5" max="5" width="9.296875" customWidth="1"/>
     <col min="7" max="7" width="15.69921875" customWidth="1"/>
-    <col min="10" max="10" width="15.69921875" customWidth="1"/>
-    <col min="11" max="11" width="21.09765625" customWidth="1"/>
-    <col min="12" max="12" width="10.44921875" customWidth="1"/>
-    <col min="13" max="13" width="9.34765625" customWidth="1"/>
-    <col min="14" max="14" width="22.25" customWidth="1"/>
-    <col min="15" max="15" width="17.94921875" customWidth="1"/>
-    <col min="16" max="16" width="14.6484375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.09765625" style="3" customWidth="1"/>
-    <col min="18" max="18" width="50.296875" customWidth="1"/>
-    <col min="19" max="19" width="23.75" customWidth="1"/>
+    <col min="10" max="11" width="15.69921875" customWidth="1"/>
+    <col min="12" max="12" width="21.09765625" customWidth="1"/>
+    <col min="13" max="13" width="10.44921875" customWidth="1"/>
+    <col min="14" max="14" width="9.34765625" customWidth="1"/>
+    <col min="15" max="15" width="15.3984375" customWidth="1"/>
+    <col min="16" max="16" width="17.94921875" customWidth="1"/>
+    <col min="17" max="17" width="14.6484375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.09765625" style="3" customWidth="1"/>
+    <col min="19" max="19" width="50.296875" customWidth="1"/>
+    <col min="20" max="20" width="23.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:18" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>107</v>
-      </c>
       <c r="M1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="N1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>24</v>
+      <c r="O1" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>23</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1009,42 +1021,45 @@
         <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F2" t="s">
         <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I2" t="s">
         <v>12</v>
       </c>
       <c r="J2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K2" t="s">
+        <v>131</v>
+      </c>
+      <c r="L2" t="s">
         <v>1</v>
       </c>
-      <c r="L2" t="s">
-        <v>108</v>
-      </c>
       <c r="M2" t="s">
+        <v>104</v>
+      </c>
+      <c r="N2" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="3">
+      <c r="O2" s="3">
         <v>8127000000</v>
       </c>
-      <c r="O2" t="s">
-        <v>131</v>
-      </c>
-      <c r="P2" s="3"/>
-      <c r="Q2"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="P2" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q2" s="3"/>
+      <c r="R2"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1056,42 +1071,45 @@
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F3" t="s">
         <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="H3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="I3" t="s">
         <v>12</v>
       </c>
       <c r="J3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L3" t="s">
-        <v>109</v>
+        <v>22</v>
       </c>
       <c r="M3" t="s">
+        <v>105</v>
+      </c>
+      <c r="N3" t="s">
         <v>13</v>
       </c>
-      <c r="N3" s="3">
+      <c r="O3" s="3">
         <v>5930002892</v>
       </c>
-      <c r="O3" t="s">
-        <v>131</v>
-      </c>
-      <c r="P3" s="3"/>
-      <c r="Q3"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="P3" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q3" s="3"/>
+      <c r="R3"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1103,39 +1121,42 @@
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F4" t="s">
         <v>11</v>
       </c>
       <c r="G4" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="H4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K4" t="s">
+        <v>131</v>
+      </c>
+      <c r="L4" t="s">
         <v>4</v>
       </c>
-      <c r="L4" t="s">
-        <v>108</v>
-      </c>
       <c r="M4" t="s">
+        <v>104</v>
+      </c>
+      <c r="N4" t="s">
         <v>13</v>
       </c>
-      <c r="N4" s="3">
+      <c r="O4" s="3">
         <v>5054988054</v>
       </c>
-      <c r="P4" s="3"/>
-      <c r="Q4"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q4" s="3"/>
+      <c r="R4"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1147,39 +1168,42 @@
         <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G5" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="H5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J5" t="s">
         <v>8</v>
       </c>
       <c r="K5" t="s">
+        <v>100</v>
+      </c>
+      <c r="L5" t="s">
         <v>8</v>
       </c>
-      <c r="L5" t="s">
-        <v>108</v>
-      </c>
       <c r="M5" t="s">
+        <v>104</v>
+      </c>
+      <c r="N5" t="s">
         <v>13</v>
       </c>
-      <c r="N5" s="3">
+      <c r="O5" s="3">
         <v>1615071673</v>
       </c>
-      <c r="O5" t="s">
-        <v>27</v>
-      </c>
-      <c r="P5" s="3"/>
-      <c r="Q5"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="P5" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q5" s="3"/>
+      <c r="R5"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -1191,39 +1215,42 @@
         <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G6" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="H6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K6" t="s">
-        <v>5</v>
+        <v>131</v>
       </c>
       <c r="L6" t="s">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="M6" t="s">
+        <v>104</v>
+      </c>
+      <c r="N6" t="s">
         <v>13</v>
       </c>
-      <c r="N6" s="3">
+      <c r="O6" s="3">
         <v>3462363000</v>
       </c>
-      <c r="O6" t="s">
-        <v>27</v>
-      </c>
-      <c r="P6" s="3"/>
-      <c r="Q6"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="P6" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q6" s="3"/>
+      <c r="R6"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -1235,39 +1262,42 @@
         <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G7" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="H7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K7" t="s">
+        <v>131</v>
+      </c>
+      <c r="L7" t="s">
         <v>0</v>
       </c>
-      <c r="L7" t="s">
-        <v>108</v>
-      </c>
       <c r="M7" t="s">
+        <v>104</v>
+      </c>
+      <c r="N7" t="s">
         <v>13</v>
       </c>
-      <c r="N7" s="3">
+      <c r="O7" s="3">
         <v>1440804846</v>
       </c>
-      <c r="O7" t="s">
-        <v>81</v>
-      </c>
-      <c r="P7" s="3"/>
-      <c r="Q7"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="P7" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q7" s="3"/>
+      <c r="R7"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -1279,39 +1309,42 @@
         <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F8" t="s">
         <v>10</v>
       </c>
       <c r="G8" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K8" t="s">
+        <v>131</v>
+      </c>
+      <c r="L8" t="s">
         <v>1</v>
       </c>
-      <c r="L8" t="s">
-        <v>108</v>
-      </c>
       <c r="M8" t="s">
-        <v>18</v>
-      </c>
-      <c r="N8" s="3">
+        <v>104</v>
+      </c>
+      <c r="N8" t="s">
+        <v>128</v>
+      </c>
+      <c r="O8" s="3">
         <v>3518945000</v>
       </c>
-      <c r="O8" t="s">
-        <v>25</v>
-      </c>
-      <c r="P8" s="3"/>
-      <c r="Q8"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="P8" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q8" s="3"/>
+      <c r="R8"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -1323,36 +1356,39 @@
         <v>3</v>
       </c>
       <c r="E9" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F9" t="s">
         <v>12</v>
       </c>
       <c r="G9" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="H9" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="J9" t="s">
         <v>8</v>
       </c>
       <c r="K9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L9" t="s">
-        <v>109</v>
+        <v>22</v>
       </c>
       <c r="M9" t="s">
-        <v>18</v>
-      </c>
-      <c r="N9" s="3">
+        <v>105</v>
+      </c>
+      <c r="N9" t="s">
+        <v>128</v>
+      </c>
+      <c r="O9" s="3">
         <v>1560856347</v>
       </c>
-      <c r="P9" s="3"/>
-      <c r="Q9"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q9" s="3"/>
+      <c r="R9"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -1364,39 +1400,42 @@
         <v>3</v>
       </c>
       <c r="E10" t="s">
-        <v>32</v>
+        <v>119</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
       </c>
       <c r="G10" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="H10" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="J10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L10" t="s">
-        <v>109</v>
+        <v>22</v>
       </c>
       <c r="M10" t="s">
-        <v>18</v>
-      </c>
-      <c r="N10" s="3">
+        <v>105</v>
+      </c>
+      <c r="N10" t="s">
+        <v>128</v>
+      </c>
+      <c r="O10" s="3">
         <v>1394688072</v>
       </c>
-      <c r="O10" t="s">
-        <v>28</v>
-      </c>
-      <c r="P10" s="3"/>
-      <c r="Q10"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="P10" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q10" s="3"/>
+      <c r="R10"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -1408,42 +1447,45 @@
         <v>3</v>
       </c>
       <c r="E11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F11" t="s">
         <v>11</v>
       </c>
       <c r="G11" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="H11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I11" t="s">
+        <v>86</v>
+      </c>
+      <c r="J11" t="s">
+        <v>83</v>
+      </c>
+      <c r="K11" t="s">
+        <v>131</v>
+      </c>
+      <c r="L11" t="s">
+        <v>4</v>
+      </c>
+      <c r="M11" t="s">
+        <v>107</v>
+      </c>
+      <c r="N11" t="s">
+        <v>128</v>
+      </c>
+      <c r="O11" s="3">
+        <v>677964975</v>
+      </c>
+      <c r="P11" t="s">
         <v>87</v>
       </c>
-      <c r="J11" t="s">
-        <v>84</v>
-      </c>
-      <c r="K11" t="s">
-        <v>4</v>
-      </c>
-      <c r="L11" t="s">
-        <v>111</v>
-      </c>
-      <c r="M11" t="s">
-        <v>18</v>
-      </c>
-      <c r="N11" s="3">
-        <v>677964975</v>
-      </c>
-      <c r="O11" t="s">
-        <v>88</v>
-      </c>
-      <c r="P11" s="3"/>
-      <c r="Q11"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q11" s="3"/>
+      <c r="R11"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -1455,39 +1497,42 @@
         <v>3</v>
       </c>
       <c r="E12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G12" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="H12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K12" t="s">
+        <v>131</v>
+      </c>
+      <c r="L12" t="s">
         <v>0</v>
       </c>
-      <c r="L12" t="s">
-        <v>108</v>
-      </c>
       <c r="M12" t="s">
-        <v>18</v>
-      </c>
-      <c r="N12" s="3">
+        <v>104</v>
+      </c>
+      <c r="N12" t="s">
+        <v>128</v>
+      </c>
+      <c r="O12" s="3">
         <v>695541441</v>
       </c>
-      <c r="P12" s="3"/>
-      <c r="Q12"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q12" s="3"/>
+      <c r="R12"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -1499,39 +1544,42 @@
         <v>3</v>
       </c>
       <c r="E13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F13" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G13" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="H13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I13" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J13" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K13" t="s">
+        <v>131</v>
+      </c>
+      <c r="L13" t="s">
         <v>0</v>
       </c>
-      <c r="L13" t="s">
-        <v>108</v>
-      </c>
       <c r="M13" t="s">
-        <v>18</v>
-      </c>
-      <c r="N13" s="3">
+        <v>104</v>
+      </c>
+      <c r="N13" t="s">
+        <v>128</v>
+      </c>
+      <c r="O13" s="3">
         <v>165000000</v>
       </c>
-      <c r="P13" s="3"/>
-      <c r="Q13"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q13" s="3"/>
+      <c r="R13"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -1543,42 +1591,45 @@
         <v>3</v>
       </c>
       <c r="E14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G14" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="H14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I14" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="J14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K14" t="s">
+        <v>106</v>
+      </c>
+      <c r="L14" t="s">
         <v>5</v>
       </c>
-      <c r="L14" t="s">
-        <v>110</v>
-      </c>
       <c r="M14" t="s">
-        <v>18</v>
-      </c>
-      <c r="N14" s="3">
+        <v>106</v>
+      </c>
+      <c r="N14" t="s">
+        <v>128</v>
+      </c>
+      <c r="O14" s="3">
         <v>2636263219</v>
       </c>
-      <c r="O14" t="s">
-        <v>82</v>
-      </c>
-      <c r="P14" s="3"/>
-      <c r="Q14"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="P14" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q14" s="3"/>
+      <c r="R14"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -1590,39 +1641,45 @@
         <v>3</v>
       </c>
       <c r="E15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F15" t="s">
         <v>10</v>
       </c>
       <c r="G15" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="H15" t="s">
-        <v>30</v>
+        <v>29</v>
+      </c>
+      <c r="I15" t="s">
+        <v>29</v>
       </c>
       <c r="J15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K15" t="s">
-        <v>30</v>
+        <v>131</v>
       </c>
       <c r="L15" t="s">
-        <v>108</v>
+        <v>29</v>
       </c>
       <c r="M15" t="s">
-        <v>18</v>
-      </c>
-      <c r="N15" s="3">
+        <v>104</v>
+      </c>
+      <c r="N15" t="s">
+        <v>128</v>
+      </c>
+      <c r="O15" s="3">
         <v>4984990736</v>
       </c>
-      <c r="O15" t="s">
-        <v>89</v>
-      </c>
-      <c r="P15" s="3"/>
-      <c r="Q15"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="P15" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q15" s="3"/>
+      <c r="R15"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -1634,287 +1691,305 @@
         <v>3</v>
       </c>
       <c r="E16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" t="s">
+        <v>122</v>
+      </c>
+      <c r="H16" t="s">
+        <v>29</v>
+      </c>
+      <c r="I16" t="s">
+        <v>92</v>
+      </c>
+      <c r="J16" t="s">
+        <v>29</v>
+      </c>
+      <c r="K16" t="s">
+        <v>131</v>
+      </c>
+      <c r="L16" t="s">
+        <v>0</v>
+      </c>
+      <c r="M16" t="s">
+        <v>104</v>
+      </c>
+      <c r="N16" t="s">
+        <v>128</v>
+      </c>
+      <c r="O16" s="3">
+        <v>71000000</v>
+      </c>
+      <c r="Q16" s="3"/>
+      <c r="R16"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" t="s">
         <v>30</v>
-      </c>
-      <c r="G16" t="s">
-        <v>126</v>
-      </c>
-      <c r="H16" t="s">
-        <v>30</v>
-      </c>
-      <c r="I16" t="s">
-        <v>94</v>
-      </c>
-      <c r="J16" t="s">
-        <v>30</v>
-      </c>
-      <c r="K16" t="s">
-        <v>0</v>
-      </c>
-      <c r="L16" t="s">
-        <v>108</v>
-      </c>
-      <c r="M16" t="s">
-        <v>18</v>
-      </c>
-      <c r="N16" s="3">
-        <v>71000000</v>
-      </c>
-      <c r="P16" s="3"/>
-      <c r="Q16"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" t="s">
-        <v>31</v>
       </c>
       <c r="B17" s="3">
         <v>4469242245</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" t="s">
+        <v>120</v>
+      </c>
+      <c r="H17" t="s">
+        <v>31</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K17" t="s">
+        <v>106</v>
+      </c>
+      <c r="L17" t="s">
+        <v>5</v>
+      </c>
+      <c r="M17" t="s">
+        <v>106</v>
+      </c>
+      <c r="N17" t="s">
+        <v>129</v>
+      </c>
+      <c r="O17" s="4">
+        <v>2440888026</v>
+      </c>
+      <c r="P17" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q17" s="3"/>
+      <c r="R17"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" t="s">
         <v>30</v>
-      </c>
-      <c r="E17" t="s">
-        <v>32</v>
-      </c>
-      <c r="F17" t="s">
-        <v>32</v>
-      </c>
-      <c r="G17" t="s">
-        <v>124</v>
-      </c>
-      <c r="H17" t="s">
-        <v>32</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="K17" t="s">
-        <v>5</v>
-      </c>
-      <c r="L17" t="s">
-        <v>110</v>
-      </c>
-      <c r="M17" t="s">
-        <v>18</v>
-      </c>
-      <c r="N17" s="4">
-        <v>2440888026</v>
-      </c>
-      <c r="O17" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="P17" s="3"/>
-      <c r="Q17"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" t="s">
-        <v>31</v>
       </c>
       <c r="B18" s="3">
         <v>4469242245</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="H18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I18" s="5" t="s">
         <v>6</v>
       </c>
       <c r="K18" t="s">
+        <v>106</v>
+      </c>
+      <c r="L18" t="s">
         <v>5</v>
       </c>
-      <c r="L18" t="s">
-        <v>110</v>
-      </c>
       <c r="M18" t="s">
-        <v>18</v>
-      </c>
-      <c r="N18" s="4">
+        <v>106</v>
+      </c>
+      <c r="N18" t="s">
+        <v>129</v>
+      </c>
+      <c r="O18" s="4">
         <v>2028354219</v>
       </c>
-      <c r="O18" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="P18" s="3"/>
-      <c r="Q18"/>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="P18" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q18" s="3"/>
+      <c r="R18"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
-        <v>95</v>
+        <v>132</v>
       </c>
       <c r="B19" s="7">
         <v>2778017202</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G19" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="H19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K19" t="s">
+        <v>131</v>
+      </c>
+      <c r="L19" t="s">
         <v>5</v>
       </c>
-      <c r="L19" t="s">
-        <v>110</v>
-      </c>
       <c r="M19" t="s">
-        <v>18</v>
-      </c>
-      <c r="N19" s="4">
+        <v>106</v>
+      </c>
+      <c r="N19" t="s">
+        <v>129</v>
+      </c>
+      <c r="O19" s="4">
         <v>2778017202</v>
       </c>
-      <c r="P19" s="3"/>
-      <c r="Q19"/>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q19" s="3"/>
+      <c r="R19"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
-        <v>96</v>
+        <v>133</v>
       </c>
       <c r="B20" s="7">
-        <v>3519539632</v>
+        <v>3426118654</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F20" t="s">
         <v>11</v>
       </c>
       <c r="G20" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="H20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K20" t="s">
+        <v>131</v>
+      </c>
+      <c r="L20" t="s">
         <v>4</v>
       </c>
-      <c r="L20" t="s">
-        <v>111</v>
-      </c>
       <c r="M20" t="s">
-        <v>18</v>
-      </c>
-      <c r="N20" s="3">
+        <v>107</v>
+      </c>
+      <c r="N20" t="s">
+        <v>13</v>
+      </c>
+      <c r="O20" s="3">
         <v>2298709129</v>
       </c>
-      <c r="O20" t="s">
-        <v>27</v>
-      </c>
-      <c r="P20" s="3">
+      <c r="P20" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q20" s="3">
         <v>1679195166.0999999</v>
       </c>
-      <c r="Q20"/>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="R20"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
-        <v>96</v>
+        <v>133</v>
       </c>
       <c r="B21" s="7">
-        <v>3519539632</v>
+        <v>3426118654</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G21" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="H21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I21" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="J21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K21" t="s">
+        <v>131</v>
+      </c>
+      <c r="L21" t="s">
         <v>0</v>
       </c>
-      <c r="L21" t="s">
-        <v>108</v>
-      </c>
       <c r="M21" t="s">
-        <v>18</v>
-      </c>
-      <c r="N21" s="3">
+        <v>104</v>
+      </c>
+      <c r="N21" t="s">
+        <v>13</v>
+      </c>
+      <c r="O21" s="3">
         <v>771926678</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>150000000</v>
       </c>
-      <c r="Q21"/>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="R21"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
-        <v>96</v>
+        <v>133</v>
       </c>
       <c r="B22" s="7">
-        <v>3519539632</v>
+        <v>3426118654</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G22" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="H22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I22" t="s">
         <v>8</v>
@@ -1923,18 +1998,21 @@
         <v>8</v>
       </c>
       <c r="K22" t="s">
+        <v>100</v>
+      </c>
+      <c r="L22" t="s">
         <v>8</v>
       </c>
-      <c r="L22" t="s">
-        <v>108</v>
-      </c>
       <c r="M22" t="s">
+        <v>104</v>
+      </c>
+      <c r="N22" t="s">
         <v>13</v>
       </c>
-      <c r="N22" s="7">
+      <c r="O22" s="7">
         <v>355482847</v>
       </c>
-      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -1962,7 +2040,7 @@
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D2">
         <v>2019</v>
@@ -1977,12 +2055,12 @@
         <v>2022</v>
       </c>
       <c r="I2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D3" s="3">
         <v>5942081608.6500006</v>
@@ -2003,7 +2081,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D4" s="3">
         <v>12066820196.85</v>
@@ -2024,7 +2102,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D5" s="3">
         <v>1362675926.1899998</v>
@@ -2045,7 +2123,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -2076,7 +2154,7 @@
   <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView zoomScale="57" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:XFD31"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
@@ -2094,48 +2172,48 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" t="s">
         <v>36</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>37</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>38</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>39</v>
       </c>
-      <c r="E1" t="s">
-        <v>40</v>
-      </c>
       <c r="F1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" t="s">
         <v>46</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>47</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>48</v>
-      </c>
-      <c r="E2" t="s">
-        <v>49</v>
       </c>
       <c r="I2" s="3">
         <v>20439923</v>
@@ -2143,19 +2221,19 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
       </c>
       <c r="D3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" t="s">
         <v>55</v>
-      </c>
-      <c r="E3" t="s">
-        <v>56</v>
       </c>
       <c r="I3" s="3">
         <v>30650898</v>
@@ -2163,19 +2241,19 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I4" s="3">
         <v>1584420775</v>
@@ -2183,19 +2261,19 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F5" s="3">
         <v>1560856347</v>
@@ -2206,19 +2284,19 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" t="s">
         <v>75</v>
       </c>
-      <c r="B6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" t="s">
-        <v>76</v>
-      </c>
       <c r="D6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I6" s="3">
         <v>355482847</v>
@@ -2226,19 +2304,19 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" t="s">
         <v>46</v>
       </c>
-      <c r="C7" t="s">
-        <v>47</v>
-      </c>
       <c r="D7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" t="s">
         <v>50</v>
-      </c>
-      <c r="E7" t="s">
-        <v>51</v>
       </c>
       <c r="I7" s="3">
         <v>496853094</v>
@@ -2246,19 +2324,19 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" t="s">
         <v>46</v>
       </c>
-      <c r="C8" t="s">
-        <v>47</v>
-      </c>
       <c r="D8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I8" s="3">
         <v>796272357</v>
@@ -2266,19 +2344,19 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s">
         <v>62</v>
       </c>
-      <c r="B9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" t="s">
         <v>63</v>
-      </c>
-      <c r="D9" t="s">
-        <v>50</v>
-      </c>
-      <c r="E9" t="s">
-        <v>64</v>
       </c>
       <c r="I9" s="3">
         <v>2636263219</v>
@@ -2286,19 +2364,19 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" t="s">
         <v>46</v>
       </c>
-      <c r="C10" t="s">
-        <v>47</v>
-      </c>
       <c r="D10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" t="s">
         <v>50</v>
-      </c>
-      <c r="E10" t="s">
-        <v>51</v>
       </c>
       <c r="I10" s="3">
         <v>118420119</v>
@@ -2306,19 +2384,19 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" t="s">
         <v>46</v>
       </c>
-      <c r="C11" t="s">
-        <v>47</v>
-      </c>
       <c r="D11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I11" s="3">
         <v>47232781</v>
@@ -2326,19 +2404,19 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" t="s">
         <v>68</v>
-      </c>
-      <c r="C12" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" t="s">
-        <v>50</v>
-      </c>
-      <c r="E12" t="s">
-        <v>69</v>
       </c>
       <c r="I12" s="3">
         <v>25855403</v>
@@ -2349,13 +2427,13 @@
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E13" t="s">
         <v>5</v>
@@ -2369,13 +2447,13 @@
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C14" t="s">
         <v>6</v>
       </c>
       <c r="D14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E14" t="s">
         <v>5</v>
@@ -2386,19 +2464,19 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" t="s">
         <v>63</v>
-      </c>
-      <c r="D15" t="s">
-        <v>50</v>
-      </c>
-      <c r="E15" t="s">
-        <v>64</v>
       </c>
       <c r="I15" s="3">
         <v>2778017202</v>
@@ -2406,19 +2484,19 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" t="s">
         <v>46</v>
       </c>
-      <c r="C16" t="s">
-        <v>47</v>
-      </c>
       <c r="D16" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" t="s">
         <v>50</v>
-      </c>
-      <c r="E16" t="s">
-        <v>51</v>
       </c>
       <c r="I16" s="3">
         <v>331954027</v>
@@ -2426,19 +2504,19 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C17" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" t="s">
         <v>53</v>
       </c>
-      <c r="D17" t="s">
-        <v>54</v>
-      </c>
       <c r="E17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F17" s="3">
         <v>5930002892</v>
@@ -2449,19 +2527,19 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F18" s="3">
         <v>1394688072</v>
@@ -2475,19 +2553,19 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" t="s">
         <v>58</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>59</v>
-      </c>
-      <c r="E19" t="s">
-        <v>60</v>
       </c>
       <c r="I19" s="3">
         <v>13342228.25</v>
@@ -2495,19 +2573,19 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" t="s">
         <v>58</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>59</v>
-      </c>
-      <c r="E20" t="s">
-        <v>60</v>
       </c>
       <c r="I20" s="3">
         <v>695541441</v>
@@ -2515,13 +2593,13 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" t="s">
         <v>41</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>42</v>
-      </c>
-      <c r="C21" t="s">
-        <v>43</v>
       </c>
       <c r="I21" s="3">
         <v>83246346</v>
@@ -2529,13 +2607,13 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" t="s">
         <v>44</v>
-      </c>
-      <c r="C22" t="s">
-        <v>45</v>
       </c>
       <c r="I22" s="3">
         <v>3462363000</v>
@@ -2543,13 +2621,13 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G23" s="3">
         <v>5058601934</v>
@@ -2557,7 +2635,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F24" s="3">
         <v>5930002892</v>
@@ -2574,13 +2652,13 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G26" s="3">
         <v>677964975</v>
@@ -2588,13 +2666,13 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G27" s="3">
         <v>13899434</v>
@@ -2602,7 +2680,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F28" s="3">
         <v>2955544419</v>
@@ -2619,7 +2697,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G30" s="3">
         <v>4469242245</v>
@@ -2627,7 +2705,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I32" s="3">
         <v>2778017202</v>
@@ -2635,13 +2713,13 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B34" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34" t="s">
         <v>42</v>
-      </c>
-      <c r="C34" t="s">
-        <v>43</v>
       </c>
       <c r="I34" s="3">
         <v>84489804</v>
@@ -2649,13 +2727,13 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G35" s="3">
         <v>2298709129</v>
@@ -2663,7 +2741,7 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G36" s="3">
         <v>2298709129</v>
@@ -2674,7 +2752,7 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F38" s="3">
         <v>8885547311</v>
@@ -2709,13 +2787,13 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2726,7 +2804,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D2">
         <v>2.7</v>
@@ -2746,13 +2824,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -2766,13 +2844,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D4">
         <v>1.5</v>
       </c>
       <c r="E4" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2783,13 +2861,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D5">
         <v>1.82</v>
       </c>
       <c r="E5" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2800,7 +2878,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D6">
         <v>1.3660000000000001</v>

--- a/federalcoviddollars.xlsx
+++ b/federalcoviddollars.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleaw\OneDrive\Documents\PhD Fall 2021 - Spring 2022\Merriman RA\Fiscal Futures FY2022\Fiscal-Future-Topics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C88A9DD2-52BA-4A21-9B49-BDAFCAF1C7B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F294C52-3439-424B-A056-4E2CEA44579F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11298" yWindow="7854" windowWidth="17280" windowHeight="8994" xr2:uid="{85440E55-7C44-4F4B-A24B-5EBBF184EC98}"/>
+    <workbookView xWindow="-14400" yWindow="7785" windowWidth="14400" windowHeight="15600" xr2:uid="{85440E55-7C44-4F4B-A24B-5EBBF184EC98}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="committed dollars" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="4" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
     <sheet name="arpa" sheetId="5" r:id="rId4"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="134">
   <si>
     <t>Federal Other</t>
   </si>
@@ -131,9 +131,6 @@
     <t>Other</t>
   </si>
   <si>
-    <t>Families First</t>
-  </si>
-  <si>
     <t>State</t>
   </si>
   <si>
@@ -284,12 +281,6 @@
     <t>Sum of Other items minus TANF &amp; Transit</t>
   </si>
   <si>
-    <t>Healthcare Provider Relief Fund - Considered as Medicaid rev</t>
-  </si>
-  <si>
-    <t>Healthcare</t>
-  </si>
-  <si>
     <t>Edu</t>
   </si>
   <si>
@@ -359,12 +350,6 @@
     <t>Local Transfers-Excluded</t>
   </si>
   <si>
-    <t>Federal Medicaid</t>
-  </si>
-  <si>
-    <t>Federal K-12</t>
-  </si>
-  <si>
     <t>UI Fund</t>
   </si>
   <si>
@@ -410,15 +395,9 @@
     <t>State Government</t>
   </si>
   <si>
-    <t>Health Provider Fund</t>
-  </si>
-  <si>
     <t>Law Total</t>
   </si>
   <si>
-    <t>CRSSA</t>
-  </si>
-  <si>
     <t>Recipient Type Amount</t>
   </si>
   <si>
@@ -437,10 +416,31 @@
     <t>Other Federal Revenue</t>
   </si>
   <si>
-    <t>PPP &amp; Health Care</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Response &amp; Relief </t>
+    <t>FFCRA</t>
+  </si>
+  <si>
+    <t>PPP</t>
+  </si>
+  <si>
+    <t>HPF</t>
+  </si>
+  <si>
+    <t>Public Health</t>
+  </si>
+  <si>
+    <t>Testing and Contact Tracing</t>
+  </si>
+  <si>
+    <t>Federal-Transit</t>
+  </si>
+  <si>
+    <t>Federal Medicare</t>
+  </si>
+  <si>
+    <t>Medicare</t>
+  </si>
+  <si>
+    <t>Healthcare Provider Relief Fund - Considered as Medicare rev</t>
   </si>
 </sst>
 </file>
@@ -585,10 +585,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7307C173-B5A8-415C-816E-E5204417BCF6}" name="Table1" displayName="Table1" ref="A1:Q22" totalsRowShown="0" headerRowDxfId="7">
-  <autoFilter ref="A1:Q22" xr:uid="{7307C173-B5A8-415C-816E-E5204417BCF6}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P16">
-    <sortCondition ref="A1:A16"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7307C173-B5A8-415C-816E-E5204417BCF6}" name="Table1" displayName="Table1" ref="A1:Q23" totalsRowShown="0" headerRowDxfId="7">
+  <autoFilter ref="A1:Q23" xr:uid="{7307C173-B5A8-415C-816E-E5204417BCF6}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q23">
+    <sortCondition ref="L1:L23"/>
   </sortState>
   <tableColumns count="17">
     <tableColumn id="1" xr3:uid="{8163EC4D-009A-40FF-9229-6E891FB726B7}" name="Legislation"/>
@@ -923,7 +923,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -931,22 +931,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB82A071-B66B-4BBA-B527-9BE9A8C2310F}">
-  <dimension ref="A1:R22"/>
+  <dimension ref="A1:R23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="87" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="87" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="9.3984375" customWidth="1"/>
+    <col min="1" max="1" width="19.046875" customWidth="1"/>
     <col min="2" max="3" width="15.3984375" customWidth="1"/>
     <col min="4" max="4" width="9.8984375" customWidth="1"/>
     <col min="5" max="5" width="9.296875" customWidth="1"/>
     <col min="7" max="7" width="15.69921875" customWidth="1"/>
-    <col min="10" max="11" width="15.69921875" customWidth="1"/>
+    <col min="10" max="10" width="15.69921875" customWidth="1"/>
+    <col min="11" max="11" width="20.44921875" customWidth="1"/>
     <col min="12" max="12" width="21.09765625" customWidth="1"/>
-    <col min="13" max="13" width="10.44921875" customWidth="1"/>
+    <col min="13" max="13" width="24.19921875" customWidth="1"/>
     <col min="14" max="14" width="9.34765625" customWidth="1"/>
     <col min="15" max="15" width="15.3984375" customWidth="1"/>
     <col min="16" max="16" width="17.94921875" customWidth="1"/>
@@ -961,40 +962,40 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>19</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>25</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>17</v>
@@ -1006,7 +1007,7 @@
         <v>23</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.55000000000000004">
@@ -1021,72 +1022,69 @@
         <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>114</v>
       </c>
       <c r="F2" t="s">
         <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="H2" t="s">
-        <v>31</v>
+        <v>91</v>
       </c>
       <c r="I2" t="s">
         <v>12</v>
       </c>
       <c r="J2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="K2" t="s">
-        <v>131</v>
+        <v>22</v>
       </c>
       <c r="L2" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="M2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="N2" t="s">
         <v>13</v>
       </c>
       <c r="O2" s="3">
-        <v>8127000000</v>
+        <v>5930002892</v>
       </c>
       <c r="P2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="Q2" s="3"/>
       <c r="R2"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" s="7">
-        <v>24386112042.25</v>
+        <v>15943589463</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F3" t="s">
         <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="H3" t="s">
-        <v>94</v>
-      </c>
-      <c r="I3" t="s">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="J3" t="s">
-        <v>84</v>
+        <v>8</v>
       </c>
       <c r="K3" t="s">
         <v>22</v>
@@ -1095,63 +1093,60 @@
         <v>22</v>
       </c>
       <c r="M3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="N3" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
       <c r="O3" s="3">
-        <v>5930002892</v>
-      </c>
-      <c r="P3" t="s">
-        <v>127</v>
+        <v>1560856347</v>
       </c>
       <c r="Q3" s="3"/>
       <c r="R3"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="7">
-        <v>24386112042.25</v>
+        <v>15943589463</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>114</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G4" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="H4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="J4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K4" t="s">
-        <v>131</v>
+        <v>22</v>
       </c>
       <c r="L4" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="M4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="N4" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
       <c r="O4" s="3">
-        <v>5054988054</v>
+        <v>1394688072</v>
+      </c>
+      <c r="P4" t="s">
+        <v>27</v>
       </c>
       <c r="Q4" s="3"/>
       <c r="R4"/>
@@ -1168,34 +1163,37 @@
         <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" t="s">
+        <v>115</v>
+      </c>
+      <c r="H5" t="s">
+        <v>78</v>
+      </c>
+      <c r="I5" t="s">
         <v>29</v>
       </c>
-      <c r="G5" t="s">
-        <v>120</v>
-      </c>
-      <c r="H5" t="s">
-        <v>29</v>
-      </c>
       <c r="J5" t="s">
-        <v>8</v>
+        <v>77</v>
       </c>
       <c r="K5" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="L5" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="M5" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="N5" t="s">
         <v>13</v>
       </c>
       <c r="O5" s="3">
-        <v>1615071673</v>
+        <v>3462363000</v>
       </c>
       <c r="P5" t="s">
         <v>26</v>
@@ -1215,84 +1213,87 @@
         <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F6" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="G6" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="H6" t="s">
-        <v>79</v>
+        <v>30</v>
+      </c>
+      <c r="I6" t="s">
+        <v>29</v>
       </c>
       <c r="J6" t="s">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="K6" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="L6" t="s">
         <v>0</v>
       </c>
       <c r="M6" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="N6" t="s">
         <v>13</v>
       </c>
       <c r="O6" s="3">
-        <v>3462363000</v>
+        <v>1440804846</v>
       </c>
       <c r="P6" t="s">
-        <v>26</v>
+        <v>79</v>
       </c>
       <c r="Q6" s="3"/>
       <c r="R6"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B7" s="7">
-        <v>24386112042.25</v>
+        <v>15943589463</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F7" t="s">
-        <v>29</v>
+        <v>86</v>
       </c>
       <c r="G7" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="H7" t="s">
-        <v>31</v>
+        <v>30</v>
+      </c>
+      <c r="I7" t="s">
+        <v>86</v>
       </c>
       <c r="J7" t="s">
-        <v>29</v>
+        <v>86</v>
       </c>
       <c r="K7" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="L7" t="s">
         <v>0</v>
       </c>
       <c r="M7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="N7" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
       <c r="O7" s="3">
-        <v>1440804846</v>
-      </c>
-      <c r="P7" t="s">
-        <v>80</v>
+        <v>695541441</v>
       </c>
       <c r="Q7" s="3"/>
       <c r="R7"/>
@@ -1309,130 +1310,138 @@
         <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F8" t="s">
-        <v>10</v>
+        <v>87</v>
       </c>
       <c r="G8" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="H8" t="s">
-        <v>31</v>
+        <v>78</v>
+      </c>
+      <c r="I8" t="s">
+        <v>88</v>
       </c>
       <c r="J8" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="K8" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="L8" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M8" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="N8" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="O8" s="3">
-        <v>3518945000</v>
-      </c>
-      <c r="P8" t="s">
-        <v>24</v>
+        <v>165000000</v>
       </c>
       <c r="Q8" s="3"/>
       <c r="R8"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="B9" s="7">
-        <v>15943589463</v>
+        <v>2778017202</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="E9" t="s">
-        <v>119</v>
+        <v>30</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="G9" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="H9" t="s">
-        <v>94</v>
+        <v>30</v>
+      </c>
+      <c r="I9" t="s">
+        <v>128</v>
       </c>
       <c r="J9" t="s">
-        <v>8</v>
+        <v>128</v>
       </c>
       <c r="K9" t="s">
-        <v>22</v>
+        <v>124</v>
       </c>
       <c r="L9" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="M9" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="N9" t="s">
-        <v>128</v>
-      </c>
-      <c r="O9" s="3">
-        <v>1560856347</v>
+        <v>122</v>
+      </c>
+      <c r="O9" s="4">
+        <v>504000000</v>
+      </c>
+      <c r="P9" t="s">
+        <v>129</v>
       </c>
       <c r="Q9" s="3"/>
       <c r="R9"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
-        <v>3</v>
+        <v>93</v>
       </c>
       <c r="B10" s="7">
-        <v>15943589463</v>
+        <v>3426118654</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" t="s">
-        <v>3</v>
+        <v>93</v>
       </c>
       <c r="E10" t="s">
-        <v>119</v>
+        <v>30</v>
       </c>
       <c r="F10" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="G10" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="H10" t="s">
-        <v>94</v>
+        <v>29</v>
+      </c>
+      <c r="I10" t="s">
+        <v>90</v>
       </c>
       <c r="J10" t="s">
-        <v>84</v>
+        <v>29</v>
       </c>
       <c r="K10" t="s">
-        <v>22</v>
+        <v>124</v>
       </c>
       <c r="L10" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="M10" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="N10" t="s">
-        <v>128</v>
+        <v>13</v>
       </c>
       <c r="O10" s="3">
-        <v>1394688072</v>
-      </c>
-      <c r="P10" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q10" s="3"/>
+        <v>771926678</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>150000000</v>
+      </c>
       <c r="R10"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.55000000000000004">
@@ -1447,87 +1456,84 @@
         <v>3</v>
       </c>
       <c r="E11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="G11" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="H11" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="I11" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="J11" t="s">
-        <v>83</v>
+        <v>29</v>
       </c>
       <c r="K11" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="L11" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M11" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="N11" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="O11" s="3">
-        <v>677964975</v>
-      </c>
-      <c r="P11" t="s">
-        <v>87</v>
+        <v>71000000</v>
       </c>
       <c r="Q11" s="3"/>
       <c r="R11"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B12" s="7">
-        <v>15943589463</v>
+        <v>24386112042.25</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F12" t="s">
-        <v>89</v>
+        <v>11</v>
       </c>
       <c r="G12" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="H12" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I12" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="J12" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K12" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="L12" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M12" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="N12" t="s">
-        <v>128</v>
+        <v>13</v>
       </c>
       <c r="O12" s="3">
-        <v>695541441</v>
+        <v>5054988054</v>
       </c>
       <c r="Q12" s="3"/>
       <c r="R12"/>
@@ -1544,89 +1550,94 @@
         <v>3</v>
       </c>
       <c r="E13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F13" t="s">
-        <v>90</v>
+        <v>11</v>
       </c>
       <c r="G13" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="H13" t="s">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="I13" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="J13" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="K13" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="L13" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M13" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="N13" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="O13" s="3">
-        <v>165000000</v>
+        <v>677964975</v>
+      </c>
+      <c r="P13" t="s">
+        <v>84</v>
       </c>
       <c r="Q13" s="3"/>
       <c r="R13"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
-        <v>3</v>
+        <v>93</v>
       </c>
       <c r="B14" s="7">
-        <v>15943589463</v>
+        <v>3426118654</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" t="s">
-        <v>3</v>
+        <v>93</v>
       </c>
       <c r="E14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F14" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="G14" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="H14" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I14" t="s">
-        <v>123</v>
+        <v>83</v>
       </c>
       <c r="J14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K14" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="L14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M14" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="N14" t="s">
-        <v>128</v>
+        <v>13</v>
       </c>
       <c r="O14" s="3">
-        <v>2636263219</v>
+        <v>2298709129</v>
       </c>
       <c r="P14" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q14" s="3"/>
+        <v>26</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>1679195166.0999999</v>
+      </c>
       <c r="R14"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.55000000000000004">
@@ -1641,94 +1652,94 @@
         <v>3</v>
       </c>
       <c r="E15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F15" t="s">
-        <v>10</v>
+        <v>127</v>
       </c>
       <c r="G15" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="H15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I15" t="s">
-        <v>29</v>
+        <v>127</v>
       </c>
       <c r="J15" t="s">
-        <v>29</v>
+        <v>127</v>
       </c>
       <c r="K15" t="s">
         <v>131</v>
       </c>
       <c r="L15" t="s">
-        <v>29</v>
+        <v>132</v>
       </c>
       <c r="M15" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="N15" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="O15" s="3">
-        <v>4984990736</v>
+        <v>2636263219</v>
       </c>
       <c r="P15" t="s">
-        <v>88</v>
+        <v>133</v>
       </c>
       <c r="Q15" s="3"/>
       <c r="R15"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="7">
-        <v>15943589463</v>
-      </c>
-      <c r="C16" s="7"/>
+        <v>125</v>
+      </c>
+      <c r="B16" s="3">
+        <v>4469242245</v>
+      </c>
+      <c r="C16" s="3"/>
       <c r="D16" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="E16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G16" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="H16" t="s">
-        <v>29</v>
-      </c>
-      <c r="I16" t="s">
-        <v>92</v>
-      </c>
-      <c r="J16" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>69</v>
       </c>
       <c r="K16" t="s">
         <v>131</v>
       </c>
       <c r="L16" t="s">
-        <v>0</v>
+        <v>132</v>
       </c>
       <c r="M16" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="N16" t="s">
-        <v>128</v>
-      </c>
-      <c r="O16" s="3">
-        <v>71000000</v>
+        <v>122</v>
+      </c>
+      <c r="O16" s="4">
+        <v>2440888026</v>
+      </c>
+      <c r="P16" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="Q16" s="3"/>
       <c r="R16"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>125</v>
       </c>
       <c r="B17" s="3">
         <v>4469242245</v>
@@ -1738,34 +1749,34 @@
         <v>29</v>
       </c>
       <c r="E17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G17" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="H17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>70</v>
+        <v>6</v>
       </c>
       <c r="K17" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="L17" t="s">
-        <v>5</v>
+        <v>132</v>
       </c>
       <c r="M17" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="N17" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="O17" s="4">
-        <v>2440888026</v>
+        <v>2028354219</v>
       </c>
       <c r="P17" s="5" t="s">
         <v>26</v>
@@ -1775,221 +1786,223 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="3">
-        <v>4469242245</v>
-      </c>
-      <c r="C18" s="3"/>
+        <v>126</v>
+      </c>
+      <c r="B18" s="7">
+        <v>2778017202</v>
+      </c>
+      <c r="C18" s="7"/>
       <c r="D18" t="s">
         <v>29</v>
       </c>
       <c r="E18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F18" t="s">
-        <v>31</v>
+        <v>127</v>
       </c>
       <c r="G18" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="H18" t="s">
-        <v>31</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>6</v>
+        <v>30</v>
+      </c>
+      <c r="I18" t="s">
+        <v>127</v>
+      </c>
+      <c r="J18" t="s">
+        <v>127</v>
       </c>
       <c r="K18" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="L18" t="s">
-        <v>5</v>
+        <v>132</v>
       </c>
       <c r="M18" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="N18" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="O18" s="4">
-        <v>2028354219</v>
-      </c>
-      <c r="P18" s="5" t="s">
-        <v>26</v>
+        <v>2290000000</v>
       </c>
       <c r="Q18" s="3"/>
       <c r="R18"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
-        <v>132</v>
+        <v>3</v>
       </c>
       <c r="B19" s="7">
-        <v>2778017202</v>
+        <v>15943589463</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" t="s">
+        <v>30</v>
+      </c>
+      <c r="F19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" t="s">
+        <v>115</v>
+      </c>
+      <c r="H19" t="s">
         <v>29</v>
       </c>
-      <c r="E19" t="s">
-        <v>31</v>
-      </c>
-      <c r="F19" t="s">
-        <v>28</v>
-      </c>
-      <c r="G19" t="s">
-        <v>120</v>
-      </c>
-      <c r="H19" t="s">
-        <v>31</v>
-      </c>
       <c r="I19" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="J19" t="s">
-        <v>82</v>
+        <v>29</v>
       </c>
       <c r="K19" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="L19" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="M19" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="N19" t="s">
-        <v>129</v>
-      </c>
-      <c r="O19" s="4">
-        <v>2778017202</v>
+        <v>121</v>
+      </c>
+      <c r="O19" s="3">
+        <v>4984990736</v>
+      </c>
+      <c r="P19" t="s">
+        <v>85</v>
       </c>
       <c r="Q19" s="3"/>
       <c r="R19"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
-        <v>133</v>
+        <v>2</v>
       </c>
       <c r="B20" s="7">
-        <v>3426118654</v>
+        <v>24386112042.25</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" t="s">
-        <v>96</v>
+        <v>2</v>
       </c>
       <c r="E20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G20" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="H20" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="I20" t="s">
-        <v>86</v>
+        <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K20" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="L20" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M20" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="N20" t="s">
         <v>13</v>
       </c>
       <c r="O20" s="3">
-        <v>2298709129</v>
+        <v>8127000000</v>
       </c>
       <c r="P20" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>1679195166.0999999</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="Q20" s="3"/>
       <c r="R20"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
-        <v>133</v>
+        <v>3</v>
       </c>
       <c r="B21" s="7">
-        <v>3426118654</v>
+        <v>15943589463</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" t="s">
-        <v>96</v>
+        <v>3</v>
       </c>
       <c r="E21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F21" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="G21" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="H21" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I21" t="s">
-        <v>93</v>
+        <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="K21" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="L21" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M21" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="N21" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
       <c r="O21" s="3">
-        <v>771926678</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>150000000</v>
-      </c>
+        <v>3518945000</v>
+      </c>
+      <c r="P21" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q21" s="3"/>
       <c r="R21"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
-        <v>133</v>
+        <v>2</v>
       </c>
       <c r="B22" s="7">
-        <v>3426118654</v>
+        <v>24386112042.25</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" t="s">
-        <v>125</v>
+        <v>2</v>
       </c>
       <c r="E22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F22" t="s">
         <v>29</v>
       </c>
       <c r="G22" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="H22" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I22" t="s">
         <v>8</v>
@@ -1998,21 +2011,71 @@
         <v>8</v>
       </c>
       <c r="K22" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="L22" t="s">
         <v>8</v>
       </c>
       <c r="M22" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="N22" t="s">
         <v>13</v>
       </c>
-      <c r="O22" s="7">
+      <c r="O22" s="3">
+        <v>1615071673</v>
+      </c>
+      <c r="P22" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q22" s="3"/>
+      <c r="R22"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" t="s">
+        <v>93</v>
+      </c>
+      <c r="B23" s="7">
+        <v>3426118654</v>
+      </c>
+      <c r="C23" s="7"/>
+      <c r="D23" t="s">
+        <v>93</v>
+      </c>
+      <c r="E23" t="s">
+        <v>30</v>
+      </c>
+      <c r="F23" t="s">
+        <v>29</v>
+      </c>
+      <c r="G23" t="s">
+        <v>115</v>
+      </c>
+      <c r="H23" t="s">
+        <v>30</v>
+      </c>
+      <c r="I23" t="s">
+        <v>8</v>
+      </c>
+      <c r="J23" t="s">
+        <v>8</v>
+      </c>
+      <c r="K23" t="s">
+        <v>97</v>
+      </c>
+      <c r="L23" t="s">
+        <v>8</v>
+      </c>
+      <c r="M23" t="s">
+        <v>130</v>
+      </c>
+      <c r="N23" t="s">
+        <v>13</v>
+      </c>
+      <c r="O23" s="7">
         <v>355482847</v>
       </c>
-      <c r="Q22" s="3"/>
+      <c r="Q23" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -2040,7 +2103,7 @@
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D2">
         <v>2019</v>
@@ -2055,12 +2118,12 @@
         <v>2022</v>
       </c>
       <c r="I2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D3" s="3">
         <v>5942081608.6500006</v>
@@ -2081,7 +2144,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D4" s="3">
         <v>12066820196.85</v>
@@ -2102,7 +2165,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D5" s="3">
         <v>1362675926.1899998</v>
@@ -2123,7 +2186,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -2172,48 +2235,48 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" t="s">
         <v>35</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>36</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>37</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>38</v>
       </c>
-      <c r="E1" t="s">
-        <v>39</v>
-      </c>
       <c r="F1" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>20</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" t="s">
         <v>45</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>46</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>47</v>
-      </c>
-      <c r="E2" t="s">
-        <v>48</v>
       </c>
       <c r="I2" s="3">
         <v>20439923</v>
@@ -2221,19 +2284,19 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
       </c>
       <c r="D3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" t="s">
         <v>54</v>
-      </c>
-      <c r="E3" t="s">
-        <v>55</v>
       </c>
       <c r="I3" s="3">
         <v>30650898</v>
@@ -2241,19 +2304,19 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I4" s="3">
         <v>1584420775</v>
@@ -2261,19 +2324,19 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F5" s="3">
         <v>1560856347</v>
@@ -2284,19 +2347,19 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" t="s">
         <v>74</v>
       </c>
-      <c r="B6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" t="s">
-        <v>75</v>
-      </c>
       <c r="D6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I6" s="3">
         <v>355482847</v>
@@ -2304,19 +2367,19 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" t="s">
         <v>45</v>
       </c>
-      <c r="C7" t="s">
-        <v>46</v>
-      </c>
       <c r="D7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" t="s">
         <v>49</v>
-      </c>
-      <c r="E7" t="s">
-        <v>50</v>
       </c>
       <c r="I7" s="3">
         <v>496853094</v>
@@ -2324,19 +2387,19 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" t="s">
         <v>45</v>
       </c>
-      <c r="C8" t="s">
-        <v>46</v>
-      </c>
       <c r="D8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I8" s="3">
         <v>796272357</v>
@@ -2344,19 +2407,19 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B9" t="s">
         <v>28</v>
       </c>
       <c r="C9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" t="s">
         <v>62</v>
-      </c>
-      <c r="D9" t="s">
-        <v>49</v>
-      </c>
-      <c r="E9" t="s">
-        <v>63</v>
       </c>
       <c r="I9" s="3">
         <v>2636263219</v>
@@ -2364,19 +2427,19 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" t="s">
         <v>45</v>
       </c>
-      <c r="C10" t="s">
-        <v>46</v>
-      </c>
       <c r="D10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" t="s">
         <v>49</v>
-      </c>
-      <c r="E10" t="s">
-        <v>50</v>
       </c>
       <c r="I10" s="3">
         <v>118420119</v>
@@ -2384,19 +2447,19 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" t="s">
         <v>45</v>
       </c>
-      <c r="C11" t="s">
-        <v>46</v>
-      </c>
       <c r="D11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I11" s="3">
         <v>47232781</v>
@@ -2404,19 +2467,19 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" t="s">
         <v>67</v>
-      </c>
-      <c r="C12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" t="s">
-        <v>49</v>
-      </c>
-      <c r="E12" t="s">
-        <v>68</v>
       </c>
       <c r="I12" s="3">
         <v>25855403</v>
@@ -2427,13 +2490,13 @@
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E13" t="s">
         <v>5</v>
@@ -2447,13 +2510,13 @@
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C14" t="s">
         <v>6</v>
       </c>
       <c r="D14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E14" t="s">
         <v>5</v>
@@ -2464,19 +2527,19 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B15" t="s">
         <v>28</v>
       </c>
       <c r="C15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" t="s">
         <v>62</v>
-      </c>
-      <c r="D15" t="s">
-        <v>49</v>
-      </c>
-      <c r="E15" t="s">
-        <v>63</v>
       </c>
       <c r="I15" s="3">
         <v>2778017202</v>
@@ -2484,19 +2547,19 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" t="s">
         <v>45</v>
       </c>
-      <c r="C16" t="s">
-        <v>46</v>
-      </c>
       <c r="D16" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" t="s">
         <v>49</v>
-      </c>
-      <c r="E16" t="s">
-        <v>50</v>
       </c>
       <c r="I16" s="3">
         <v>331954027</v>
@@ -2504,19 +2567,19 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" t="s">
         <v>52</v>
       </c>
-      <c r="D17" t="s">
-        <v>53</v>
-      </c>
       <c r="E17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F17" s="3">
         <v>5930002892</v>
@@ -2527,19 +2590,19 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F18" s="3">
         <v>1394688072</v>
@@ -2553,19 +2616,19 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" t="s">
         <v>57</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>58</v>
-      </c>
-      <c r="E19" t="s">
-        <v>59</v>
       </c>
       <c r="I19" s="3">
         <v>13342228.25</v>
@@ -2573,19 +2636,19 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C20" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" t="s">
         <v>57</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>58</v>
-      </c>
-      <c r="E20" t="s">
-        <v>59</v>
       </c>
       <c r="I20" s="3">
         <v>695541441</v>
@@ -2593,13 +2656,13 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" t="s">
         <v>40</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>41</v>
-      </c>
-      <c r="C21" t="s">
-        <v>42</v>
       </c>
       <c r="I21" s="3">
         <v>83246346</v>
@@ -2607,13 +2670,13 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" t="s">
         <v>43</v>
-      </c>
-      <c r="C22" t="s">
-        <v>44</v>
       </c>
       <c r="I22" s="3">
         <v>3462363000</v>
@@ -2621,13 +2684,13 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G23" s="3">
         <v>5058601934</v>
@@ -2635,7 +2698,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F24" s="3">
         <v>5930002892</v>
@@ -2652,13 +2715,13 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G26" s="3">
         <v>677964975</v>
@@ -2666,13 +2729,13 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G27" s="3">
         <v>13899434</v>
@@ -2680,7 +2743,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F28" s="3">
         <v>2955544419</v>
@@ -2697,7 +2760,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G30" s="3">
         <v>4469242245</v>
@@ -2705,7 +2768,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I32" s="3">
         <v>2778017202</v>
@@ -2713,13 +2776,13 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B34" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" t="s">
         <v>41</v>
-      </c>
-      <c r="C34" t="s">
-        <v>42</v>
       </c>
       <c r="I34" s="3">
         <v>84489804</v>
@@ -2727,13 +2790,13 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G35" s="3">
         <v>2298709129</v>
@@ -2741,7 +2804,7 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G36" s="3">
         <v>2298709129</v>
@@ -2752,7 +2815,7 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F38" s="3">
         <v>8885547311</v>
@@ -2787,13 +2850,13 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D1" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="F1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2804,7 +2867,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D2">
         <v>2.7</v>
@@ -2824,13 +2887,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -2844,13 +2907,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D4">
         <v>1.5</v>
       </c>
       <c r="E4" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2861,13 +2924,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D5">
         <v>1.82</v>
       </c>
       <c r="E5" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2878,7 +2941,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D6">
         <v>1.3660000000000001</v>

--- a/federalcoviddollars.xlsx
+++ b/federalcoviddollars.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleaw\OneDrive\Documents\PhD Fall 2021 - Spring 2022\Merriman RA\Fiscal Futures FY2022\Fiscal-Future-Topics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F294C52-3439-424B-A056-4E2CEA44579F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4886185A-359A-4D65-82F9-399865181A6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14400" yWindow="7785" windowWidth="14400" windowHeight="15600" xr2:uid="{85440E55-7C44-4F4B-A24B-5EBBF184EC98}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="2" xr2:uid="{85440E55-7C44-4F4B-A24B-5EBBF184EC98}"/>
   </bookViews>
   <sheets>
     <sheet name="committed dollars" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="135">
   <si>
     <t>Federal Other</t>
   </si>
@@ -338,9 +338,6 @@
     <t>Year</t>
   </si>
   <si>
-    <t>2022-2019</t>
-  </si>
-  <si>
     <t>FedRevCat</t>
   </si>
   <si>
@@ -441,6 +438,12 @@
   </si>
   <si>
     <t>Healthcare Provider Relief Fund - Considered as Medicare rev</t>
+  </si>
+  <si>
+    <t>2022 minus 2019</t>
+  </si>
+  <si>
+    <t>All went to local governments except for 57 million. In 2019, fed transportation received $1.4 billion. Compare to normal federal funding!</t>
   </si>
 </sst>
 </file>
@@ -933,8 +936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB82A071-B66B-4BBA-B527-9BE9A8C2310F}">
   <dimension ref="A1:R23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="87" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView zoomScale="87" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
@@ -962,22 +965,22 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>119</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>92</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>19</v>
@@ -989,13 +992,13 @@
         <v>25</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>17</v>
@@ -1022,13 +1025,13 @@
         <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F2" t="s">
         <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H2" t="s">
         <v>91</v>
@@ -1046,7 +1049,7 @@
         <v>22</v>
       </c>
       <c r="M2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N2" t="s">
         <v>13</v>
@@ -1055,7 +1058,7 @@
         <v>5930002892</v>
       </c>
       <c r="P2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Q2" s="3"/>
       <c r="R2"/>
@@ -1072,13 +1075,13 @@
         <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F3" t="s">
         <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H3" t="s">
         <v>91</v>
@@ -1093,10 +1096,10 @@
         <v>22</v>
       </c>
       <c r="M3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O3" s="3">
         <v>1560856347</v>
@@ -1116,13 +1119,13 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F4" t="s">
         <v>10</v>
       </c>
       <c r="G4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H4" t="s">
         <v>91</v>
@@ -1137,10 +1140,10 @@
         <v>22</v>
       </c>
       <c r="M4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O4" s="3">
         <v>1394688072</v>
@@ -1169,7 +1172,7 @@
         <v>48</v>
       </c>
       <c r="G5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H5" t="s">
         <v>78</v>
@@ -1181,13 +1184,13 @@
         <v>77</v>
       </c>
       <c r="K5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L5" t="s">
         <v>0</v>
       </c>
       <c r="M5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N5" t="s">
         <v>13</v>
@@ -1219,7 +1222,7 @@
         <v>29</v>
       </c>
       <c r="G6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H6" t="s">
         <v>30</v>
@@ -1231,13 +1234,13 @@
         <v>29</v>
       </c>
       <c r="K6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L6" t="s">
         <v>0</v>
       </c>
       <c r="M6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N6" t="s">
         <v>13</v>
@@ -1269,7 +1272,7 @@
         <v>86</v>
       </c>
       <c r="G7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H7" t="s">
         <v>30</v>
@@ -1281,16 +1284,16 @@
         <v>86</v>
       </c>
       <c r="K7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L7" t="s">
         <v>0</v>
       </c>
       <c r="M7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O7" s="3">
         <v>695541441</v>
@@ -1316,7 +1319,7 @@
         <v>87</v>
       </c>
       <c r="G8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H8" t="s">
         <v>78</v>
@@ -1328,16 +1331,16 @@
         <v>87</v>
       </c>
       <c r="K8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L8" t="s">
         <v>0</v>
       </c>
       <c r="M8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O8" s="3">
         <v>165000000</v>
@@ -1347,7 +1350,7 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B9" s="7">
         <v>2778017202</v>
@@ -1363,34 +1366,34 @@
         <v>29</v>
       </c>
       <c r="G9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H9" t="s">
         <v>30</v>
       </c>
       <c r="I9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L9" t="s">
         <v>0</v>
       </c>
       <c r="M9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O9" s="4">
         <v>504000000</v>
       </c>
       <c r="P9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Q9" s="3"/>
       <c r="R9"/>
@@ -1413,7 +1416,7 @@
         <v>29</v>
       </c>
       <c r="G10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H10" t="s">
         <v>29</v>
@@ -1425,13 +1428,13 @@
         <v>29</v>
       </c>
       <c r="K10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L10" t="s">
         <v>0</v>
       </c>
       <c r="M10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N10" t="s">
         <v>13</v>
@@ -1462,7 +1465,7 @@
         <v>29</v>
       </c>
       <c r="G11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H11" t="s">
         <v>29</v>
@@ -1474,16 +1477,16 @@
         <v>29</v>
       </c>
       <c r="K11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L11" t="s">
         <v>0</v>
       </c>
       <c r="M11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O11" s="3">
         <v>71000000</v>
@@ -1509,7 +1512,7 @@
         <v>11</v>
       </c>
       <c r="G12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H12" t="s">
         <v>21</v>
@@ -1521,13 +1524,13 @@
         <v>80</v>
       </c>
       <c r="K12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L12" t="s">
         <v>4</v>
       </c>
       <c r="M12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N12" t="s">
         <v>13</v>
@@ -1556,7 +1559,7 @@
         <v>11</v>
       </c>
       <c r="G13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H13" t="s">
         <v>21</v>
@@ -1568,16 +1571,16 @@
         <v>80</v>
       </c>
       <c r="K13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L13" t="s">
         <v>4</v>
       </c>
       <c r="M13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O13" s="3">
         <v>677964975</v>
@@ -1606,7 +1609,7 @@
         <v>11</v>
       </c>
       <c r="G14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H14" t="s">
         <v>21</v>
@@ -1618,13 +1621,13 @@
         <v>80</v>
       </c>
       <c r="K14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L14" t="s">
         <v>4</v>
       </c>
       <c r="M14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N14" t="s">
         <v>13</v>
@@ -1655,44 +1658,44 @@
         <v>30</v>
       </c>
       <c r="F15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H15" t="s">
         <v>30</v>
       </c>
       <c r="I15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K15" t="s">
+        <v>130</v>
+      </c>
+      <c r="L15" t="s">
         <v>131</v>
       </c>
-      <c r="L15" t="s">
-        <v>132</v>
-      </c>
       <c r="M15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O15" s="3">
         <v>2636263219</v>
       </c>
       <c r="P15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Q15" s="3"/>
       <c r="R15"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B16" s="3">
         <v>4469242245</v>
@@ -1708,7 +1711,7 @@
         <v>30</v>
       </c>
       <c r="G16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H16" t="s">
         <v>30</v>
@@ -1717,16 +1720,16 @@
         <v>69</v>
       </c>
       <c r="K16" t="s">
+        <v>130</v>
+      </c>
+      <c r="L16" t="s">
         <v>131</v>
       </c>
-      <c r="L16" t="s">
-        <v>132</v>
-      </c>
       <c r="M16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O16" s="4">
         <v>2440888026</v>
@@ -1739,7 +1742,7 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B17" s="3">
         <v>4469242245</v>
@@ -1755,7 +1758,7 @@
         <v>30</v>
       </c>
       <c r="G17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H17" t="s">
         <v>30</v>
@@ -1764,16 +1767,16 @@
         <v>6</v>
       </c>
       <c r="K17" t="s">
+        <v>130</v>
+      </c>
+      <c r="L17" t="s">
         <v>131</v>
       </c>
-      <c r="L17" t="s">
-        <v>132</v>
-      </c>
       <c r="M17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O17" s="4">
         <v>2028354219</v>
@@ -1786,7 +1789,7 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B18" s="7">
         <v>2778017202</v>
@@ -1799,31 +1802,31 @@
         <v>30</v>
       </c>
       <c r="F18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H18" t="s">
         <v>30</v>
       </c>
       <c r="I18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K18" t="s">
+        <v>130</v>
+      </c>
+      <c r="L18" t="s">
         <v>131</v>
       </c>
-      <c r="L18" t="s">
-        <v>132</v>
-      </c>
       <c r="M18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O18" s="4">
         <v>2290000000</v>
@@ -1849,7 +1852,7 @@
         <v>10</v>
       </c>
       <c r="G19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H19" t="s">
         <v>29</v>
@@ -1861,16 +1864,16 @@
         <v>29</v>
       </c>
       <c r="K19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L19" t="s">
         <v>29</v>
       </c>
       <c r="M19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N19" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O19" s="3">
         <v>4984990736</v>
@@ -1899,7 +1902,7 @@
         <v>12</v>
       </c>
       <c r="G20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H20" t="s">
         <v>30</v>
@@ -1911,13 +1914,13 @@
         <v>81</v>
       </c>
       <c r="K20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L20" t="s">
         <v>1</v>
       </c>
       <c r="M20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N20" t="s">
         <v>13</v>
@@ -1926,7 +1929,7 @@
         <v>8127000000</v>
       </c>
       <c r="P20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Q20" s="3"/>
       <c r="R20"/>
@@ -1949,7 +1952,7 @@
         <v>10</v>
       </c>
       <c r="G21" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H21" t="s">
         <v>30</v>
@@ -1961,16 +1964,16 @@
         <v>81</v>
       </c>
       <c r="K21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L21" t="s">
         <v>1</v>
       </c>
       <c r="M21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N21" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O21" s="3">
         <v>3518945000</v>
@@ -1993,13 +1996,13 @@
         <v>2</v>
       </c>
       <c r="E22" t="s">
-        <v>30</v>
+        <v>113</v>
       </c>
       <c r="F22" t="s">
         <v>29</v>
       </c>
       <c r="G22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H22" t="s">
         <v>29</v>
@@ -2014,10 +2017,10 @@
         <v>97</v>
       </c>
       <c r="L22" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="M22" t="s">
-        <v>130</v>
+        <v>101</v>
       </c>
       <c r="N22" t="s">
         <v>13</v>
@@ -2026,7 +2029,7 @@
         <v>1615071673</v>
       </c>
       <c r="P22" t="s">
-        <v>26</v>
+        <v>134</v>
       </c>
       <c r="Q22" s="3"/>
       <c r="R22"/>
@@ -2049,25 +2052,25 @@
         <v>29</v>
       </c>
       <c r="G23" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H23" t="s">
         <v>30</v>
       </c>
       <c r="I23" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="J23" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="K23" t="s">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="L23" t="s">
         <v>8</v>
       </c>
       <c r="M23" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N23" t="s">
         <v>13</v>
@@ -2092,7 +2095,7 @@
   <dimension ref="A2:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
@@ -2118,7 +2121,7 @@
         <v>2022</v>
       </c>
       <c r="I2" t="s">
-        <v>99</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2216,13 +2219,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9BDA4FF-EE12-4797-A020-C5630B964763}">
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView zoomScale="57" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="12.44921875" customWidth="1"/>
+    <col min="1" max="1" width="30.546875" customWidth="1"/>
     <col min="2" max="2" width="15.25" customWidth="1"/>
     <col min="3" max="3" width="19.94921875" customWidth="1"/>
     <col min="4" max="4" width="46.94921875" customWidth="1"/>
@@ -2850,13 +2853,13 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2867,7 +2870,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D2">
         <v>2.7</v>
@@ -2887,13 +2890,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -2907,13 +2910,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D4">
         <v>1.5</v>
       </c>
       <c r="E4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2924,13 +2927,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D5">
         <v>1.82</v>
       </c>
       <c r="E5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2941,7 +2944,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D6">
         <v>1.3660000000000001</v>

--- a/federalcoviddollars.xlsx
+++ b/federalcoviddollars.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleaw\OneDrive\Documents\PhD Fall 2021 - Spring 2022\Merriman RA\Fiscal Futures FY2022\Fiscal-Future-Topics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4886185A-359A-4D65-82F9-399865181A6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9965ADB0-BC52-48F3-85A9-B2523D0B10E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="2" xr2:uid="{85440E55-7C44-4F4B-A24B-5EBBF184EC98}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{85440E55-7C44-4F4B-A24B-5EBBF184EC98}"/>
   </bookViews>
   <sheets>
     <sheet name="committed dollars" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="136">
   <si>
     <t>Federal Other</t>
   </si>
@@ -444,6 +444,9 @@
   </si>
   <si>
     <t>All went to local governments except for 57 million. In 2019, fed transportation received $1.4 billion. Compare to normal federal funding!</t>
+  </si>
+  <si>
+    <t>Law_order</t>
   </si>
 </sst>
 </file>
@@ -588,12 +591,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7307C173-B5A8-415C-816E-E5204417BCF6}" name="Table1" displayName="Table1" ref="A1:Q23" totalsRowShown="0" headerRowDxfId="7">
-  <autoFilter ref="A1:Q23" xr:uid="{7307C173-B5A8-415C-816E-E5204417BCF6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7307C173-B5A8-415C-816E-E5204417BCF6}" name="Table1" displayName="Table1" ref="A1:R23" totalsRowShown="0" headerRowDxfId="7">
+  <autoFilter ref="A1:R23" xr:uid="{7307C173-B5A8-415C-816E-E5204417BCF6}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q23">
     <sortCondition ref="L1:L23"/>
   </sortState>
-  <tableColumns count="17">
+  <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{8163EC4D-009A-40FF-9229-6E891FB726B7}" name="Legislation"/>
     <tableColumn id="15" xr3:uid="{1FEBC966-86AC-4D2C-92C2-C1CD0A685BD6}" name="Law Total"/>
     <tableColumn id="16" xr3:uid="{E165A898-E314-4F71-AD05-5E8E48123AA0}" name="Recipient Type Amount" dataDxfId="6"/>
@@ -611,6 +614,7 @@
     <tableColumn id="7" xr3:uid="{B2A84F10-914D-4196-9116-2F0B9D5038FE}" name="Dollars Received" dataDxfId="5" dataCellStyle="Comma"/>
     <tableColumn id="8" xr3:uid="{DA7979E1-12D0-4C64-A6DD-57A1C322A8C6}" name="Notes"/>
     <tableColumn id="11" xr3:uid="{C20D0B62-0410-4DA4-B530-7806C0D21673}" name="Normal Spending 2019" dataDxfId="4" dataCellStyle="Comma"/>
+    <tableColumn id="18" xr3:uid="{75738D65-C45E-4232-9108-D965D5ECB719}" name="Law_order"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -936,8 +940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB82A071-B66B-4BBA-B527-9BE9A8C2310F}">
   <dimension ref="A1:R23"/>
   <sheetViews>
-    <sheetView zoomScale="87" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" zoomScale="58" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="R24" sqref="R24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
@@ -1012,6 +1016,9 @@
       <c r="Q1" s="1" t="s">
         <v>94</v>
       </c>
+      <c r="R1" s="1" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
@@ -1061,24 +1068,26 @@
         <v>119</v>
       </c>
       <c r="Q2" s="3"/>
-      <c r="R2"/>
+      <c r="R2">
+        <v>6</v>
+      </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="7">
-        <v>15943589463</v>
+        <v>24386112042.25</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E3" t="s">
         <v>113</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="G3" t="s">
         <v>113</v>
@@ -1086,6 +1095,9 @@
       <c r="H3" t="s">
         <v>91</v>
       </c>
+      <c r="I3" t="s">
+        <v>8</v>
+      </c>
       <c r="J3" t="s">
         <v>8</v>
       </c>
@@ -1099,13 +1111,18 @@
         <v>101</v>
       </c>
       <c r="N3" t="s">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="O3" s="3">
-        <v>1560856347</v>
+        <v>1615071673</v>
+      </c>
+      <c r="P3" t="s">
+        <v>134</v>
       </c>
       <c r="Q3" s="3"/>
-      <c r="R3"/>
+      <c r="R3">
+        <v>6</v>
+      </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
@@ -1122,7 +1139,7 @@
         <v>113</v>
       </c>
       <c r="F4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G4" t="s">
         <v>113</v>
@@ -1131,7 +1148,7 @@
         <v>91</v>
       </c>
       <c r="J4" t="s">
-        <v>81</v>
+        <v>8</v>
       </c>
       <c r="K4" t="s">
         <v>22</v>
@@ -1146,63 +1163,61 @@
         <v>120</v>
       </c>
       <c r="O4" s="3">
-        <v>1394688072</v>
-      </c>
-      <c r="P4" t="s">
-        <v>27</v>
+        <v>1560856347</v>
       </c>
       <c r="Q4" s="3"/>
-      <c r="R4"/>
+      <c r="R4">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5" s="7">
-        <v>24386112042.25</v>
+        <v>15943589463</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>30</v>
+        <v>113</v>
       </c>
       <c r="F5" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="G5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H5" t="s">
-        <v>78</v>
-      </c>
-      <c r="I5" t="s">
-        <v>29</v>
+        <v>91</v>
       </c>
       <c r="J5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="K5" t="s">
-        <v>123</v>
+        <v>22</v>
       </c>
       <c r="L5" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="M5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="N5" t="s">
-        <v>13</v>
+        <v>120</v>
       </c>
       <c r="O5" s="3">
-        <v>3462363000</v>
+        <v>1394688072</v>
       </c>
       <c r="P5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q5" s="3"/>
-      <c r="R5"/>
+      <c r="R5">
+        <v>3</v>
+      </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
@@ -1219,19 +1234,19 @@
         <v>30</v>
       </c>
       <c r="F6" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="G6" t="s">
         <v>114</v>
       </c>
       <c r="H6" t="s">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="I6" t="s">
         <v>29</v>
       </c>
       <c r="J6" t="s">
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="K6" t="s">
         <v>123</v>
@@ -1246,30 +1261,32 @@
         <v>13</v>
       </c>
       <c r="O6" s="3">
-        <v>1440804846</v>
+        <v>3462363000</v>
       </c>
       <c r="P6" t="s">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="Q6" s="3"/>
-      <c r="R6"/>
+      <c r="R6">
+        <v>6</v>
+      </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" s="7">
-        <v>15943589463</v>
+        <v>24386112042.25</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E7" t="s">
         <v>30</v>
       </c>
       <c r="F7" t="s">
-        <v>86</v>
+        <v>29</v>
       </c>
       <c r="G7" t="s">
         <v>114</v>
@@ -1278,10 +1295,10 @@
         <v>30</v>
       </c>
       <c r="I7" t="s">
-        <v>86</v>
+        <v>29</v>
       </c>
       <c r="J7" t="s">
-        <v>86</v>
+        <v>29</v>
       </c>
       <c r="K7" t="s">
         <v>123</v>
@@ -1293,13 +1310,18 @@
         <v>100</v>
       </c>
       <c r="N7" t="s">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="O7" s="3">
-        <v>695541441</v>
+        <v>1440804846</v>
+      </c>
+      <c r="P7" t="s">
+        <v>79</v>
       </c>
       <c r="Q7" s="3"/>
-      <c r="R7"/>
+      <c r="R7">
+        <v>6</v>
+      </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
@@ -1316,19 +1338,19 @@
         <v>30</v>
       </c>
       <c r="F8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G8" t="s">
         <v>114</v>
       </c>
       <c r="H8" t="s">
-        <v>78</v>
+        <v>30</v>
       </c>
       <c r="I8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K8" t="s">
         <v>123</v>
@@ -1343,39 +1365,41 @@
         <v>120</v>
       </c>
       <c r="O8" s="3">
-        <v>165000000</v>
+        <v>695541441</v>
       </c>
       <c r="Q8" s="3"/>
-      <c r="R8"/>
+      <c r="R8">
+        <v>3</v>
+      </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>125</v>
+        <v>3</v>
       </c>
       <c r="B9" s="7">
-        <v>2778017202</v>
+        <v>15943589463</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="E9" t="s">
         <v>30</v>
       </c>
       <c r="F9" t="s">
-        <v>29</v>
+        <v>87</v>
       </c>
       <c r="G9" t="s">
         <v>114</v>
       </c>
       <c r="H9" t="s">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="I9" t="s">
-        <v>127</v>
+        <v>88</v>
       </c>
       <c r="J9" t="s">
-        <v>127</v>
+        <v>87</v>
       </c>
       <c r="K9" t="s">
         <v>123</v>
@@ -1387,27 +1411,26 @@
         <v>100</v>
       </c>
       <c r="N9" t="s">
-        <v>121</v>
-      </c>
-      <c r="O9" s="4">
-        <v>504000000</v>
-      </c>
-      <c r="P9" t="s">
-        <v>128</v>
+        <v>120</v>
+      </c>
+      <c r="O9" s="3">
+        <v>165000000</v>
       </c>
       <c r="Q9" s="3"/>
-      <c r="R9"/>
+      <c r="R9">
+        <v>3</v>
+      </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
-        <v>93</v>
+        <v>3</v>
       </c>
       <c r="B10" s="7">
-        <v>3426118654</v>
+        <v>15943589463</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" t="s">
-        <v>93</v>
+        <v>3</v>
       </c>
       <c r="E10" t="s">
         <v>30</v>
@@ -1416,13 +1439,13 @@
         <v>29</v>
       </c>
       <c r="G10" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H10" t="s">
         <v>29</v>
       </c>
       <c r="I10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J10" t="s">
         <v>29</v>
@@ -1437,26 +1460,26 @@
         <v>100</v>
       </c>
       <c r="N10" t="s">
-        <v>13</v>
+        <v>120</v>
       </c>
       <c r="O10" s="3">
-        <v>771926678</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>150000000</v>
-      </c>
-      <c r="R10"/>
+        <v>71000000</v>
+      </c>
+      <c r="Q10" s="3"/>
+      <c r="R10">
+        <v>3</v>
+      </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
-        <v>3</v>
+        <v>93</v>
       </c>
       <c r="B11" s="7">
-        <v>15943589463</v>
+        <v>3426118654</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" t="s">
-        <v>3</v>
+        <v>93</v>
       </c>
       <c r="E11" t="s">
         <v>30</v>
@@ -1465,13 +1488,13 @@
         <v>29</v>
       </c>
       <c r="G11" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H11" t="s">
         <v>29</v>
       </c>
       <c r="I11" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J11" t="s">
         <v>29</v>
@@ -1486,71 +1509,80 @@
         <v>100</v>
       </c>
       <c r="N11" t="s">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="O11" s="3">
-        <v>71000000</v>
-      </c>
-      <c r="Q11" s="3"/>
-      <c r="R11"/>
+        <v>771926678</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>150000000</v>
+      </c>
+      <c r="R11">
+        <v>5</v>
+      </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
-        <v>2</v>
+        <v>125</v>
       </c>
       <c r="B12" s="7">
-        <v>24386112042.25</v>
+        <v>2778017202</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="E12" t="s">
         <v>30</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="G12" t="s">
         <v>114</v>
       </c>
       <c r="H12" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="I12" t="s">
-        <v>83</v>
+        <v>127</v>
       </c>
       <c r="J12" t="s">
-        <v>80</v>
+        <v>127</v>
       </c>
       <c r="K12" t="s">
         <v>123</v>
       </c>
       <c r="L12" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M12" t="s">
         <v>100</v>
       </c>
       <c r="N12" t="s">
-        <v>13</v>
-      </c>
-      <c r="O12" s="3">
-        <v>5054988054</v>
+        <v>121</v>
+      </c>
+      <c r="O12" s="4">
+        <v>504000000</v>
+      </c>
+      <c r="P12" t="s">
+        <v>128</v>
       </c>
       <c r="Q12" s="3"/>
-      <c r="R12"/>
+      <c r="R12">
+        <v>4</v>
+      </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B13" s="7">
-        <v>15943589463</v>
+        <v>24386112042.25</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E13" t="s">
         <v>30</v>
@@ -1580,27 +1612,26 @@
         <v>100</v>
       </c>
       <c r="N13" t="s">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="O13" s="3">
-        <v>677964975</v>
-      </c>
-      <c r="P13" t="s">
-        <v>84</v>
+        <v>5054988054</v>
       </c>
       <c r="Q13" s="3"/>
-      <c r="R13"/>
+      <c r="R13">
+        <v>6</v>
+      </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
-        <v>93</v>
+        <v>3</v>
       </c>
       <c r="B14" s="7">
-        <v>3426118654</v>
+        <v>15943589463</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" t="s">
-        <v>93</v>
+        <v>3</v>
       </c>
       <c r="E14" t="s">
         <v>30</v>
@@ -1630,85 +1661,89 @@
         <v>100</v>
       </c>
       <c r="N14" t="s">
-        <v>13</v>
+        <v>120</v>
       </c>
       <c r="O14" s="3">
-        <v>2298709129</v>
+        <v>677964975</v>
       </c>
       <c r="P14" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>1679195166.0999999</v>
-      </c>
-      <c r="R14"/>
+        <v>84</v>
+      </c>
+      <c r="Q14" s="3"/>
+      <c r="R14">
+        <v>3</v>
+      </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
-        <v>3</v>
+        <v>93</v>
       </c>
       <c r="B15" s="7">
-        <v>15943589463</v>
+        <v>3426118654</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" t="s">
-        <v>3</v>
+        <v>93</v>
       </c>
       <c r="E15" t="s">
         <v>30</v>
       </c>
       <c r="F15" t="s">
-        <v>126</v>
+        <v>11</v>
       </c>
       <c r="G15" t="s">
         <v>114</v>
       </c>
       <c r="H15" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="I15" t="s">
-        <v>126</v>
+        <v>83</v>
       </c>
       <c r="J15" t="s">
-        <v>126</v>
+        <v>80</v>
       </c>
       <c r="K15" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="L15" t="s">
-        <v>131</v>
+        <v>4</v>
       </c>
       <c r="M15" t="s">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="N15" t="s">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="O15" s="3">
-        <v>2636263219</v>
+        <v>2298709129</v>
       </c>
       <c r="P15" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q15" s="3"/>
-      <c r="R15"/>
+        <v>26</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>1679195166.0999999</v>
+      </c>
+      <c r="R15">
+        <v>5</v>
+      </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
-        <v>124</v>
-      </c>
-      <c r="B16" s="3">
-        <v>4469242245</v>
-      </c>
-      <c r="C16" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="B16" s="7">
+        <v>15943589463</v>
+      </c>
+      <c r="C16" s="7"/>
       <c r="D16" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="E16" t="s">
         <v>30</v>
       </c>
       <c r="F16" t="s">
-        <v>30</v>
+        <v>126</v>
       </c>
       <c r="G16" t="s">
         <v>114</v>
@@ -1716,8 +1751,11 @@
       <c r="H16" t="s">
         <v>30</v>
       </c>
-      <c r="I16" s="5" t="s">
-        <v>69</v>
+      <c r="I16" t="s">
+        <v>126</v>
+      </c>
+      <c r="J16" t="s">
+        <v>126</v>
       </c>
       <c r="K16" t="s">
         <v>130</v>
@@ -1729,16 +1767,18 @@
         <v>130</v>
       </c>
       <c r="N16" t="s">
-        <v>121</v>
-      </c>
-      <c r="O16" s="4">
-        <v>2440888026</v>
-      </c>
-      <c r="P16" s="5" t="s">
-        <v>26</v>
+        <v>120</v>
+      </c>
+      <c r="O16" s="3">
+        <v>2636263219</v>
+      </c>
+      <c r="P16" t="s">
+        <v>132</v>
       </c>
       <c r="Q16" s="3"/>
-      <c r="R16"/>
+      <c r="R16">
+        <v>3</v>
+      </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
@@ -1764,7 +1804,7 @@
         <v>30</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="K17" t="s">
         <v>130</v>
@@ -1779,22 +1819,24 @@
         <v>121</v>
       </c>
       <c r="O17" s="4">
-        <v>2028354219</v>
+        <v>2440888026</v>
       </c>
       <c r="P17" s="5" t="s">
         <v>26</v>
       </c>
       <c r="Q17" s="3"/>
-      <c r="R17"/>
+      <c r="R17">
+        <v>2</v>
+      </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
-        <v>125</v>
-      </c>
-      <c r="B18" s="7">
-        <v>2778017202</v>
-      </c>
-      <c r="C18" s="7"/>
+        <v>124</v>
+      </c>
+      <c r="B18" s="3">
+        <v>4469242245</v>
+      </c>
+      <c r="C18" s="3"/>
       <c r="D18" t="s">
         <v>29</v>
       </c>
@@ -1802,7 +1844,7 @@
         <v>30</v>
       </c>
       <c r="F18" t="s">
-        <v>126</v>
+        <v>30</v>
       </c>
       <c r="G18" t="s">
         <v>114</v>
@@ -1810,11 +1852,8 @@
       <c r="H18" t="s">
         <v>30</v>
       </c>
-      <c r="I18" t="s">
-        <v>126</v>
-      </c>
-      <c r="J18" t="s">
-        <v>126</v>
+      <c r="I18" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="K18" t="s">
         <v>130</v>
@@ -1829,127 +1868,133 @@
         <v>121</v>
       </c>
       <c r="O18" s="4">
-        <v>2290000000</v>
+        <v>2028354219</v>
+      </c>
+      <c r="P18" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="Q18" s="3"/>
-      <c r="R18"/>
+      <c r="R18">
+        <v>2</v>
+      </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
-        <v>3</v>
+        <v>125</v>
       </c>
       <c r="B19" s="7">
-        <v>15943589463</v>
+        <v>2778017202</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="E19" t="s">
         <v>30</v>
       </c>
       <c r="F19" t="s">
-        <v>10</v>
+        <v>126</v>
       </c>
       <c r="G19" t="s">
         <v>114</v>
       </c>
       <c r="H19" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I19" t="s">
-        <v>29</v>
+        <v>126</v>
       </c>
       <c r="J19" t="s">
-        <v>29</v>
+        <v>126</v>
       </c>
       <c r="K19" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="L19" t="s">
-        <v>29</v>
+        <v>131</v>
       </c>
       <c r="M19" t="s">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="N19" t="s">
-        <v>120</v>
-      </c>
-      <c r="O19" s="3">
-        <v>4984990736</v>
-      </c>
-      <c r="P19" t="s">
-        <v>85</v>
+        <v>121</v>
+      </c>
+      <c r="O19" s="4">
+        <v>2290000000</v>
       </c>
       <c r="Q19" s="3"/>
-      <c r="R19"/>
+      <c r="R19">
+        <v>4</v>
+      </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B20" s="7">
-        <v>24386112042.25</v>
+        <v>15943589463</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E20" t="s">
         <v>30</v>
       </c>
       <c r="F20" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G20" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I20" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="J20" t="s">
-        <v>81</v>
+        <v>29</v>
       </c>
       <c r="K20" t="s">
         <v>123</v>
       </c>
       <c r="L20" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="M20" t="s">
         <v>100</v>
       </c>
       <c r="N20" t="s">
-        <v>13</v>
+        <v>120</v>
       </c>
       <c r="O20" s="3">
-        <v>8127000000</v>
+        <v>4984990736</v>
       </c>
       <c r="P20" t="s">
-        <v>119</v>
+        <v>85</v>
       </c>
       <c r="Q20" s="3"/>
-      <c r="R20"/>
+      <c r="R20">
+        <v>3</v>
+      </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B21" s="7">
-        <v>15943589463</v>
+        <v>24386112042.25</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E21" t="s">
         <v>30</v>
       </c>
       <c r="F21" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G21" t="s">
         <v>116</v>
@@ -1973,66 +2018,70 @@
         <v>100</v>
       </c>
       <c r="N21" t="s">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="O21" s="3">
-        <v>3518945000</v>
+        <v>8127000000</v>
       </c>
       <c r="P21" t="s">
-        <v>24</v>
+        <v>119</v>
       </c>
       <c r="Q21" s="3"/>
-      <c r="R21"/>
+      <c r="R21">
+        <v>6</v>
+      </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B22" s="7">
-        <v>24386112042.25</v>
+        <v>15943589463</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E22" t="s">
-        <v>113</v>
+        <v>30</v>
       </c>
       <c r="F22" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="G22" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H22" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I22" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="K22" t="s">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="L22" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="M22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N22" t="s">
-        <v>13</v>
+        <v>120</v>
       </c>
       <c r="O22" s="3">
-        <v>1615071673</v>
+        <v>3518945000</v>
       </c>
       <c r="P22" t="s">
-        <v>134</v>
+        <v>24</v>
       </c>
       <c r="Q22" s="3"/>
-      <c r="R22"/>
+      <c r="R22">
+        <v>3</v>
+      </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
@@ -2079,6 +2128,9 @@
         <v>355482847</v>
       </c>
       <c r="Q23" s="3"/>
+      <c r="R23" s="3">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -2219,7 +2271,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9BDA4FF-EE12-4797-A020-C5630B964763}">
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+    <sheetView zoomScale="77" zoomScaleNormal="93" workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
